--- a/graduation_project_pro/grouped_descriptions.xlsx
+++ b/graduation_project_pro/grouped_descriptions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,84 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Potential Accident Level</t>
+          <t>Potential Accident Level Encoded</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Cleaned_Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Being 9:45 be . approximately in the Nv . 1880 CX-695 OB7 , the personnel begin the task of unlock the Soquet bolt of the BHB machine , when they be in the penultimate bolt they identify that the hexagonal head be worn , proceed Mr. Cristóbal - Auxiliary assistant to climb to the platform to exert pressure with your hand on the `` DADO `` key , to prevent it from come out of the bolt ; in those moment two collaborator rotate with the lever in anti-clockwise direction , leave the key of the bolt , hit the palm of the left hand , cause the injury . The collaborator report that he be work in the Ustulación and realize that the cyclone duct be obstruct and open the door to try to unclog the same and the material detach and project towards the employee cause small burn in the right heel . At the end of lunch in an enable place on the side of the winche control room . He get up and after a short walk he slip and sits with the floor and make contact with the left knee and not take importance in the rest of the guard , when the guard be finish , he go to safety and communicates the fact , for which reason it be derive Natclar , for your attention . During the trip to the vehicle , at the end of the work , the collaborator Rhainer step on an object that he could not identify , thus come to pierce the sole of the boot and cause a small hole in the sole of the left foot of the collaborator . The perforation be possibly due to a stump of wood , since the area cover by the collaborator , be a pasture graze recently and near a residence . When perform geological mapping activity , it be necessary to hammer a rock for analysis , at the moment when the clerk held it , a point fragment slip on the third quirodactyl of the right hand cause a superficial cut . In circumstance that the collaborator Juveni perform the wash of the tabolas in the pot wash area , she suffers a feel of dizziness and faintness cause the fall the same level and produce a slight concussion in the head . The ground team coordinate by Prospector with his assistant : da Silva and Wila 14:45 p.m. , in a prong opening to access and collect soil sample , Auxiliar come across some he try to divert about 10 meter to the right of the place , but at the moment of the diversion he come across the marimbondo house in front of him , not give time for any other action since the thug be already agitate , da Silva 5 time : a sting in the head , another behind the neck and other 3 sting in the face . Since all have allergy test , it be verify that there be no allergic reaction , wash the affected part and return to normal activity . In the geological reconnaissance activity , in the farm of Mr. Lázaro , the team compose by Felipe and Divino de Morais , in normal activity encounter a ciliary forest , a they need to enter the forest to verify a rock outcrop which be the front , the Divine realize the opening of the access with machete . At that moment , take a bite from his neck . There be no more attack , no allergic reaction , and continued work normally . With the work complete , leave the forest for the same access , the Divine assistant be attack by a snake and suffer a sting in the forehead . At that moment they move away from the area . It be verify that there be no type of allergic reaction and return with normal activity . In the geological reconnaissance activity , in the farm of Mr. Lázaro , the team compose by Felipe and Divino de Morais , in normal activity encounter a ciliary forest , a they need to enter the forest to verify a rock outcrop which be the front , the Divine realize the opening of the access with machete . At that moment , take a bite from his neck . There be no more attack , no allergic reaction , and continued work normally . With the work complete , leave the forest for the same access , the Divine assistant be attack by a snake and suffer a sting in the forehead . At that moment they move away from the area . It be verify that there be no type of allergic reaction and return with normal activity . The employee who work a an electrician in the management of electrometallurgy , suffers contusion in the right leg when suffer a slip at the height of step 3 of the staircase with code ELE-81-040 ( ABB furnace cat ladder ) , immediately He be refer to a collaborator to the medical service to be treat . In circumstance where the employee make the connection of the electric cable of the No . 08 jumbo , the operator feel discomfort in the face cleaning with the hand while use the rubber glove , generate a superficial laceration ( small wound ) on the left cheekbone . Project of Vazante that carry out sediment collection of current in the South of Mata target , in the drainage of Serra do Garrote . team that be compose of 04 member of the WCA company , be the S.r.s Leandro , and Jehovânio . they be move from one collection point to another , inside a shallow drainage , they saw the bee carton , the reaction be to move away from the box a quickly a possible to avoid the sting , they ran about 50 meter , look for a safe area , to exit the radius of attack of the bee , but the S.S. and Breno ) , be attack and consequently they suffer 02 sting , in the belly and Jehovah in the hand , verify that there be no type of allergic reaction , return with the normal activity . Project of Vazante that carry out sediment collection of current in the South of Mata target , in the drainage of Serra do Garrote . team that be compose of 04 member of the WCA company , be the S.r.s Leandro , and Jehovânio . they be move from one collection point to another , inside a shallow drainage , they saw the bee carton , the reaction be to move away from the box a quickly a possible to avoid the sting , they ran about 50 meter , look for a safe area , to exit the radius of attack of the bee , but the S.S. and Breno ) , be attack and consequently they suffer 02 sting , in the belly and Jehovah in the hand , verify that there be no type of allergic reaction , return with the normal activity . The Geologo and the auxiliary Elismar travel to evaluate geological point follow the GPS near some drainage . Following the state highway that give access to the Aripuanã area , they stop and get out of the vehicle to see the point identify in the GPS , Renato , when distance himself about seven meter from the vehicle follow the road , be surprised by four bite of thorn on his face and neck . Quickly he hurry back to the vehicle , move away from the place . The clerk be wear a girdle and goggles , he still be not wear glove , a he would not enter the forest area . There be no allergic reaction . Geologist and auxiliary Ademir travel to the field to evaluate geological point follow the GPS near some drainage . Following the state highway that give access to Aripuanã area , stop and get out of the vehicle to see the point identify in the GPS , Mário , when distance himself about five meter from the vehicle follow the road , be surprised by two bite of thorn on his face . Quickly he hurry back to the vehicle , move away from the place . The clerk be wear a girdle and goggles , he still be not wear glove , a he would not enter the forest area . There be no allergic reaction . The Safety and Technical move to the field for inspection activity , on the way to the field , pause together with the other two team in order to know the drainage point to be checked , the Safety at get out of the vehicle , be struck by a sting of a weed in his neck , quickly return to the vehicle and make radio communication with the other two team which distance themselves from the place . The clerk be wear legging and glass . There be no allergic reaction . Auxiliary and Geologist travel to the field to evaluate geological point follow the GPS near some drainage . Following the state highway that give access to Aripuanã area , stop and get out of the vehicle to see the point identify in the GPS , Ademir , distance himself about five meter from the vehicle , accompany by the geologist Mario , be surprised by two bite of blow on his neck . Quickly he hurry back to the vehicle , move away from the place . The clerk be wear a girdle and goggles , he still be not wear glove , a he would not enter the forest area . There be no allergic reaction . While travel in the field in order to make geological mapping , the geologist Manoel who be accompany by the prospector Marcos stoop to deviate from the vegetation , at that time , receive three whistle sting be them , two on the face and one on the neck . There be no allergic reaction and activity follow normally after the event . When move in the field to make geological mapping , the prospector Marcos who be accompany by the geologist Manoel stoop to deviate from the vegetation , at that moment , receive a whistle sting in the ring finger of his right hand . There be no allergic reaction and activity follow normally after the event . The mince team be carry out activity in the city of Juína and be coordinate by mining technician Felipe a time when the mining technician be last in line and more away from the team , be bitten by a blackjack on the left side of his face . There be no allergic manifestation and the team continued the work . In the afternoon , after lunch , the employee sought medical care , be medicate and release to continue activity the next day . At level 4150 ( +80 ) Unicon plant the collaborator be do shutter work in the concrete water sedimentation basin , at the moment of nail a wood a it supply on another 4 x 4 inch strip , he feel that the metallic hammer loosen the wooden handle and to fix it , he grab the hammer by the head and hit the handle vertically on a wood , generate the injury . At the time of the accident the employee do not use his safety glove . When cut the vegetation to open the bite , use a sickle , the assistant struck the vine twice . When the liana rupture , the top of the branch project against the face of the auxiliary cause the cut in the upper lip . Collaborator around 9:00 AM , cleaning the leaf of the return well of the 5021 borehole BRAPDD 0183 slip on the canvas that be on the edge of the well , hit the right side of the back against the metal structure of the mud-swathed box cause a slight excoriation . The employee be refer to the local hospital , medicate and release for the activity . Being at 11:00 a.m. approximately the mechanic be remove the last bolt of the 6 `` nipple in the pump 4115 ( lime feeder ) , reactive area , the mechanic be position slightly flex the leg and performs upward force with both hand , in that moment feel a pain and a spume in the right thigh . The mechanic be evacuate with the help of his colleague to the medical post . In the region of Povoado Vista - Martinópole - CE , the employee Fábio de Vieira perform soil collection activity in the field , together with the auxiliary Manoel da Silva and Diassis do Nascimento , when around 10:00 be , when cross a fence his glove be attach to the wire and his body project forward cause a slight twist of the left wrist . The team travel to the city of Granja and the employee be refer to the hospital for consultation . The doctor do not diagnose a fracture , prescribe remedy for local pain and ice pack . By medical evaluation the employee can carry out his activity normally . in Level 2900 din room , the collaborator finish wash tabolas ( food container ) of dimension 52 cm x 30 cm x 20 cm , proceed to order them by pink the thumb of the right hand in the corner of the aluminum tabola , generate the lesion . The employee at the time of the accident do not have safety glove . During the preparation for the scaffold activity , the employee be load the piece to the designate place where he have his finger press between the metal piece that be be move . Employees engage in the removal of material from the excavation of the well 2 of level 265 , use shovel and place it in the bucket . During the day some of this material fell into the pipe of the employee ' boot and the friction between the boot and the calf cause a superficial injury to the leg . Employees engage in the removal of material from the excavation of the well 2 of level 265 , use shovel and place it in the bucket . During the day some of this material fell into the pipe of the employee ' boot and the friction between the boot and the calf cause a superficial injury to the leg . On 01/24/2017 , at 12:25 a.m. , during the activity of collect soil , the collaborator Milton ran into a branch and be attack by maribondos . He be bitten twice in the head . No pain , swell and no allergic symptom continued with their activity . During the activity for packaging the cylindrical piece on the easel , the employee carry the piece to the designate place where he have his finger press between the metal piece that be be move . Performing carpentry work , the collaborator hit the second finger of the left hand with the hammer , which he held with his right hand , cause a bruise at the height of the nail . The evaluation be carry out at the medical center of the unit , the final diagnosis be contusion on the finger . On 02/15/2017 at 3:27 pm , when perform the Magnetometric use GPS , the collaborator Antônio bumped the top of the field hat on a branch and be attack by maribondos . He be bitten behind the ear and another on the shoulder , but he continued his activity because he felt no pain or swell . On 02/25/2017 at 13:05 p.m. , when assist with GPS in the Magnetometric collaborator Gilvânio bumped the top of the field hat on a branch and be attack by maribondos . The moth go towards his eye , but due to the use of sunglass , the attack in that region be prevent . The insect move to the side of the face , get caught between the ear and the back of the field hat , make the helper get two bite behind the ear . Gilvânio be allergic to Marimbondos bite , soon the activity be immediately paralyze , we drove to the car , where the accident take his medicine ( antiallergic already use in other situation out of work , indicate by another doctor ) to avoid far swell . Marcelo responsible for the project be also on the field in the mapping activity , be call on the radio immediately . The assistant felt good , but be take to the emergency of the Hospital of Lavras do Sul , where he consult the doctor , take antiallergic and be release around 15:20 . When carry out refractory brick chop activity , in order to place the support of the bus bar in section 70 , a particle be detach , hit the assistant 's right arm that be one meter away from the work area , provoke him a wound in the arm , be treat at the medical center and return to his usual duty . On 02/03/17 during the soil sample in the region of Sta . the employee Rafael and Danillo da Silva be attack by a bee test . They rush away from the place , but the employee Rafael take 4 bite , one on the chin , one on the chest , one on the neck and one on the hand over the glove . The employee take 4 bite , one in his hand over his glove and the other in the head , and the employee Danillo take 2 bite in the left arm over his uniform . At first no one sketch allergy , just swell at the sting site . The activity be stop to evaluate the site , after verify that the test have remain in the line , they left the site . On 02/03/17 during the soil sample in the region of Sta . the employee Rafael and Danillo da Silva be attack by a bee test . They rush away from the place , but the employee Rafael take 4 bite , one on the chin , one on the chest , one on the neck and one on the hand over the glove . The employee take 4 bite , one in his hand over his glove and the other in the head , and the employee Danillo take 2 bite in the left arm over his uniform . At first no one sketch allergy , just swell at the sting site . The activity be stop to evaluate the site , after verify that the test have remain in the line , they left the site . On 02/03/17 during the soil sample in the region of Sta . the employee Rafael and Danillo da Silva be attack by a bee test . They rush away from the place , but the employee Rafael take 4 bite , one on the chin , one on the chest , one on the neck and one on the hand over the glove . The employee take 4 bite , one in his hand over his glove and the other in the head , and the employee Danillo take 2 bite in the left arm over his uniform . At first no one sketch allergy , just swell at the sting site . The activity be stop to evaluate the site , after verify that the test have remain in the line , they left the site . On 08/03/2017 at 3:30 PM , when perform MAG activity , the employee Murilo da Silva , when move in the acquisition line , come across a small drainage ( approximately 40cm wide ) , with small gap . As he traverse the drainage , the employee rest his right foot on the ravine that come to rest , cause the right ankle to twist . Soon after the twist , the activity be paralyze and the employee be take to the local hospital , where an x-ray be take and an examination make by the physician . No serious injury be found , only a small swell , then release to normal activity . Team of the VMS Project perform soil collection on the Xixás target with 3 member . When the team be move from one collection point to another , Mr. Fabio be ahead of the team , sting behind Robson and Manoel da Silva . near the collection point be surprised by a swarm of bee that be inside a I play near the ground , with no visibility in the wood and no hiss noise . Fabio pa by the stump , but Robson and Manoel da Silva be attack by the bee . Robson have a sting in his left arm over his uniform and Manoel da Silva have a prick in his lip a his screen ripped a he tangle in the branch during the escape . Team of the VMS Project perform soil collection on the Xixás target with 3 member . When the team be move from one collection point to another , Mr. Fabio be ahead of the team , sting behind Robson and Manoel da Silva . near the collection point be surprised by a swarm of bee that be inside a I play near the ground , with no visibility in the wood and no hiss noise . Fabio pa by the stump , but Robson and Manoel da Silva be attack by the bee . Robson have a sting in his left arm over his uniform and Manoel da Silva have a prick in his lip a his screen ripped a he tangle in the branch during the escape . The technician be do the magnetometric survey when he step on a thorn . His reaction be to immediately retreat , lose his balance and so the magnetometer 's antenna broke . On 04/04/2017 , around 13 : 30hs , during the current sediment activity the collaborator Warley take a bee sting in the neck , the same be use the screen , but the bee enter the bottom of the screen . After the sting the team decide to leave the workplace due to the presence of other bee . The collaborator have no reaction and continued to work normally . During the execution of the soil sample task at the Potions area , around 1:15 pm , Luis - WCA , be opening with a machete and be bitten by a wasp on the back of his right hand , the same be use at the time of the incident all the EPIs need for activity . The employee be evaluate by the technician who found it to be a mild and localize swell wound . The employee report that he do not feel any pain and that he could continue the activity . During the execution of the service of opening of pricked for the future work of IP , around 15:30 , the employee Pedro second in the line of the equipment , be stung by a wasp in the right portion of the neck . The beetle , be of small size , be not see by the employee in the bite , cause the employee 's shock against the insect that be manifest . The employee use all the PPE 's require for the activity to be developed . The bite occur over the collar of the shirt and over the face shield . The technician responsible for perform the work evaluate the sting and , together with the injured employee , found that because it be a localize swell and that there be no allergy , there would be no need to paralyze the activity , which it follow normally . During the execution of the soil sample task , in the Potions area , around 3:00 pm Pablo be move on the bite and be bitten by a right elbow wasp over the sleeve uniform . He be use at the time of the incident all the PPE need for the activity . The employee be evaluate by the team who found it to be a mild injury with localize swell . The employee report that he do not feel any pain and that he could continue the activity . The employee , a he pa the corner of the front door for not see the virdro , have a slight swell in the frontal region due to the closing of the glass door . ACTIVITY : maintenance on scaller 07 - breaker arm extension cylinder LOCAL : underground mine ( level 316 ) During the removal of the cylinder from the scaller arm , when release the fix pin the cylinder `` come down `` and bumped into the tool use to press his hand between the tool and the structure of the equipment . During the field activity in the AMG project , target São Luiz , the reconnaissance team be boarding the car , which be park with the window close . When they enter the Mr. Paulo put the seat belt inside the vehicle , press a wasp between the shoulder and the neck , cause a sting . It be believe that , possibly , the bee be nail to the clothes because the car be properly close .</t>
+          <t>be approximately nv cx ob7 personnel begin task unlock soquet bolt bhb machine penultimate bolt identify hexagonal head wear proceed mr auxiliary assistant climb platform exert pressure hand dado key prevent come bolt moment collaborator rotate lever anticlockwise direction leave key bolt hit palm leave hand cause injury collaborator report work ustulación realize cyclone duct obstruct open door try unclog material detach project employee cause small burn right heel end lunch enable place winche control room get short walk slip sit floor make contact leave knee take importance rest guard guard finish go safety communicate fact reason derive natclar attention trip vehicle end work collaborator step object identify come pierce sole boot cause small hole sole left foot collaborator perforation possibly stump wood area cover collaborator pasture graze recently near residence perform geological mapping activity necessary hammer rock analysis moment clerk hold it point fragment slip quirodactyl right hand cause superficial cut circumstance collaborator perform washing tabolas pot washing area suffer feel dizziness faintness cause fall level produce slight concussion head ground team coordinate prospector assistant wila pm prong opening access collect soil sample come try divert meter right place moment diversion come marimbondo house he give time action thug agitate time ste head neck sting face allergy test verify allergic reaction wash affect return normal activity geological reconnaissance activity farm mr team compose felipe normal activity encounter ciliary forest need enter forest verify rock outcrop front divine realize open access machete moment take bite neck attack allergic reaction continue work normally work complete leave forest access divine assistant attack snake suffer sting forehead moment move away area verify type allergic reaction return normal activity geological reconnaissance activity farm mr team compose felipe normal activity encounter ciliary forest need enter forest verify rock outcrop front divine realize open access machete moment take bite neck attack allergic reaction continue work normally work complete leave forest access divine assistant attack snake suffer sting forehead moment move away area verify type allergic reaction return normal activity employee work electrician management electrometallurgy suffer contusion right leg suffer slip height step staircase code ele abb furnace cat ladder immediately refer collaborator medical service treat circumstance employee connection electric cable no jumbo operator feel discomfort face clean hand rubber glove generate superficial laceration small wound leave cheekbone project vazante carry sediment collection current south mata target drainage serra garrote team compose member wca company move collection point another inside shallow drainage see bee carton reaction away box quickly possible avoid sting run meter look safe area exit radius attack bee ss breno attack consequently suffer sting belly hand verify type allergic reaction return normal activity project vazante carry sediment collection current south mata target drainage serra garrote team compose member wca company move collection point another inside shallow drainage see bee carton reaction away box quickly possible avoid sting run meter look safe area exit radius attack bee ss breno attack consequently suffer sting belly hand verify type allergic reaction return normal activity geologo auxiliary travel evaluate geological point follow gps near drainage follow state highway give access area stop get vehicle point identify gps distance seven meter vehicle follow road surprised bite thorn face neck quickly hurried vehicle move away place clerk wear girdle goggle wear glove enter forest area allergic reaction geologist auxiliary travel field evaluate geological point follow gps near drainage follow state highway give access area stop get vehicle point identify gps mário distancing meter vehicle follow road surprised bite thorn face quickly hurried vehicle move away place clerk wear girdle goggle wear glove enter forest area allergic reaction safety technical move field inspection activity way field pause team order know drainage point check safety get vehicle strike sting weed neck quickly return vehicle radio communication team distance place clerk wear legging glass allergic reaction auxiliary travel field evaluate geological point follow gps near drainage follow state highway give access area stop get vehicle point identify gps distancing meter vehicle accompany geologist surprised bite blow neck quickly hurried vehicle move away place clerk wear girdle goggle wear glove enter forest area allergic reaction travel field order geological mapping geologist accompany prospector stoop deviate vegetation time receive whistling sting they face neck allergic reaction activity follow normally event move field geological mapping prospector accompany geologist stoop deviate vegetation moment receive whistle sting ring finger right hand allergic reaction activity follow normally event mince team carry activity city juína coordinate mining technician felipe time mining technician line away team bite blackjack leave face allergic manifestation team continue work afternoon lunch employee seek medical care medicate release continue activity day level unicon plant collaborator shuttering work concrete water sedimentation basin moment nail wood supply inch strip feel metallic hammer loosen wooden handle fix it grab hammer head hit handle vertically wood generating injury time accident employee use safety glove cut vegetation open bite sickle assistant strike vine twice liana ruptured branch project face auxiliary cause cut upper lip collaborator be clean leave return borehole brapdd slip canva edge well hit right metal structure mudswathe box cause slight excoriation employee refer local hospital medicate release activity be approximately mechanic remove bolt nipple pump lime feeder reactive area mechanic position slightly flex leg perform upward force hand moment feel pain spume right thigh mechanic evacuate help colleague medical post region povoado vista martinópole ce employee perform soil collection activity field auxiliary diassis nascimento be cross fence glove attach wire body project forward cause slight twist leave wrist team travel city granja employee refer hospital consultation doctor diagnose fracture prescribing remedy local pain ice pack medical evaluation employee carry activity normally level dining room collaborator finish wash tabolas food container dimension cm proceed order pink thumb right hand corner aluminum tabola generating lesion employee time accident safety glove preparation scaffold activity employee loading piece designate place finger press metal piece move employee engage removal material excavation level shovel placing bucket day material fall pipe employee boot friction boot calf cause superficial injury leg employee engage removal material excavation level shovel placing bucket day material fall pipe employee boot friction boot calf cause superficial injury leg be activity collect soil collaborator run branch attack maribondo bite twice head pain swell allergic symptom continue activity activity package cylindrical piece easel employee carry piece designate place finger press metal piece move perform carpentry work collaborator hit second finger leave hand hammer hold right hand cause bruise height nail evaluation carry medical center unit final diagnosis contusion finger pm perform magnetometric gps collaborator bump field hat branch attack maribondo bitten ear shoulder continued activity feel pain swelling pm assist gps magnetometric collaborator bump field hat branch attack maribondo moth go eye use sunglass attack region prevent insect move face getting catch ear field hat make helper bite ear allergic marimbondo bite soon activity immediately paralyze drove car accident take medicine antiallergic situation work indicate doctor avoid swell responsible project field mapping activity call radio immediately assistant feel good take emergency hospital lavra sul consult doctor take antiallergic release carry refractory brick chop activity order place support bus bar section particle detach hit assistant right arm meter away work area provoke wound arm treat medical center return usual duty soil sample region employee danillo silva attack bee test rush away place employee take bite chin chest neck hand glove employee take bite hand glove head employee danillo take bite leave arm uniform sketch allergy swell ste site activity stop evaluate site verifying test remain line leave site soil sample region employee danillo silva attack bee test rush away place employee take bite chin chest neck hand glove employee take bite hand glove head employee danillo take bite leave arm uniform sketch allergy swell ste site activity stop evaluate site verifying test remain line leave site soil sample region employee danillo silva attack bee test rush away place employee take bite chin chest neck hand glove employee take bite hand glove head employee danillo take bite leave arm uniform sketch allergy swell ste site activity stop evaluate site verifying test remain line leave site pm perform mag activity employee move acquisition line come small drainage approximately 40 cm wide small gap traverse drainage employee rest right foot ravine come rest cause right ankle twist soon twist activity paralyze employee take local hospital xray take examination physician injury find small swelling release normal activity team vms project perform soil collection xixás target members team move collection point another mr ahead team sting near collection point surprised swarm bee inside play near ground visibility wood hiss noise pass stump attack bee ste left arm uniform prick lip screen rip tangle branch escape team vms project perform soil collection xixás target members team move collection point another mr ahead team sting near collection point surprised swarm bee inside play near ground visibility wood hiss noise pass stump attack bee ste left arm uniform prick lip screen rip tangle branch escape technician magnetometric survey step thorn reaction immediately retreat lose balance magnetometer antenna break 30hs current sediment activity collaborator take bee ste neck screen bee enter screen sting team decide leave workplace presence bee collaborator reaction continue work normally execution soil sample task potion area pm open machete bite wasp right hand time incident epi needed activity employee evaluate technician find mild localize swelling wound employee report feel pain continue activity execution service opening prick future work ip employee line equipment sting wasp right portion neck beetle small size see employee bite cause employee shock insect manifest employee ppe require activity develop bite occur collar shirt face shield technician responsible performing work evaluate ste and injure employee find localized swell allergy need paralyze activity follow normally execution soil sample task potion area pablo move bite bite right elbow wasp sleeve uniform time incident ppe need activity employee evaluate team find mild injury localize swell employee report feel pain continue activity employee pass corner door see virdro slight swell frontal region closing glass door activity maintenance scaller breaker arm extension cylinder local underground level removal cylinder scaller arm releasing fix pin cylinder come down bump tool press hand tool structure equipment field activity amg project target reconnaissance team boarding car park window close enter mr put seat belt inside vehicle press wasp shoulder neck cause sting believe that possibly bee nail clothe car properly close</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>At the moment the forklift operator go to manipulate big bag of bioxide in section 70 and just in front of the ladder that lead to the area of ​​manual displacement , he splash spent at the height of his forehead from a fissure in pipe G -069 , subsequently spill to his left eye . The collaborator go to the nearby eyewash for cleaning and immediately to the medical center . Due to the overheat of 2 bar in row 5 of cell 7 a spark be produce , which be project and manages to reach the Chief of guard who be in the corridor , produce a first degree burn in the neck . An auxiliary wheel of the cathode crane G2133 be change in area 75 , when when a bearing be heat and hit with a hammer and chisel at one end of the bearing track , a detachment of a bearing piece occur , impact it in the thigh of the right leg produce a cut . The ambulance be call and you be transfer to the clinic . At 14:16 , the operator Samuel be about to open the container for it subsequent load with silver concentrate , and open the first gate . Afterwards , he try to open the second door and it be when product of the opening of the latter , the first one open and impact with the handle the safety lens and generates the injury in the left cheekbone of the face of the operator . By loosening the A30-29 truck 's steer cylinder bolt use power cable and socket , with the force exert in favor of the equipment , the bolt suddenly retire and the employee hit his hand against the structure of the equipment , cause injury . An operator of the G-2142 deslaminadora in section 75 be unlock a sheet of zinc stuck so that it can enter the slide of the stack table , for this require the support of Mr. Mollares and this help to hold the sheet to place it in the entry chute to the slide . At the moment of release the blade , it tilt and brush Mr. Mollares 's left leg . The collaborator go to the nearby eyewash for cleaning and immediately to the medical center . The operator be willing to manually displace the zinc sheet adhere to the aluminum cathode . At the moment when the blade be detach , the blade be release from the cathode , bending and grazing the collaborator 's right hand , produce 2 small cut at the knuckle of the finger , the worker make use of his glove . leather . The worker be transfer to the medical unit for first aid . When the plant operator be semi-kneeling when lift the lid or gate ( 15 kg ) of the distributor box of the secondary mill No . 4 and No . 5 , his right knee slip due to the presence of debris spill on the platform or floor ( Grating ) - which give him an extra effort in his left leg , generate a muscle contracture . At level -1095 - Access 6 A2 - at time when the engineer trainee planamieto enter to verify the amount of split set place by the Scissor 184 in the support - hold his notebook and pen in his left hand - while inspect the roof of the work , he lose the balance when step on a rock hold the right hand on a rock on the floor cause the injury . The worker at the time of the accident wore glove but do not use them because it make it difficult to take note . The employee be clearing the pipe when he tapped his right thumb against the flange cause little trauma . When instal the ripper pin of the tractor D6T-N1 , the ripper support arm slide by press the second and third finger of the right hand against the base of the ripper cause the injury described . The employee report that when he low the cloth in the purification , he arrange the cart so that it would not grab the pipe , press his left hand between the cloth and the cart . At the end of the load of explosive on the work front , the master loader enters to verify the moor of the blasting accessory , when retire from the top ( 1.5 m ) , he hears the sound of fragment of rock roll through the support mesh , directs it gaze towards the crown in a vertical form , at which point a small fragment of rock ( 2x3x2cm ; 36gr ) pa through the opening of the mesh . sustain impact on the forehead . At the time of the event the collaborator use his helmet and safety lens and the front be with support to the top and sacrifice mesh . The opening of the support mesh be 3 `` x 3 `` . The employee , when perform the adjustment / tighten operation of the cutter blade with which he work , be neglect , the key to slip , cause the blade of the equipment to hit him , cause a blunt cut on his right forearm . When carry out the activity of cut electrowelded mesh on the work front , the assistant position his foot on one end of the mesh leave the other end free , at the moment that the assistant bend down to make the cut with the shear , the end free of the mesh return by inertia hit the partner above his safety lens . When access the Santa do Novo area , in order to open the chop , General be move ahead of the team in order to open access for Manetometer , when he come across an area with a steep slope and gravel presence . In a certain place of access the employee slip , come with this to become unbalanced . At that moment the machete that be in his left hand come to slip the right leg above the knee , cause a cut 3cm . In the workshop level -970 in Box # 1 , while TWO the mechanic manipulate a steel plate - 60cm x40cm x 2.5cm ; 50 Kg - to place it in the gutter of the workshop and be able to remove the Scaler # 142 , the plate slide and restricts the right ring finger between the gable and the plate cause the injury . The collaborator use glove at the time of the accident After parking a van next to a cluster of wooden sleeper and board , the driver , on descend , step on a board in which an iron nail protrude 11/2 `` long , which he do not identify a the board be submerge in a puddle of water . This accident cause a minor wound on the sole of the left foot . At the time of the accident the worker be wear safety boot . In bypass 100 of level 1970 when the worker of the company Incimet Raul ( operator of Bolter bolting team ) and Rolando ( assistant ) retire after instal the support with helical bolt , the pink team with a mesh overhang the gable , so the teacher tell his assistant to cut the mesh and the instant the assistant finish cut the mesh , it suddenly rise hit his face cause the injury described . In general store , while two store attendant remove the compartment a rubber mesh for material classification - 1.8 m.x1.2 m.x0.02 m . ; 60 kg of weight - when lift approx . 40 cm to position it against the edge of another mesh place on the floor on a litter , this slightly imprisons the index finger of the right hand of one of the assistant cause a minor cut wound . At the time of the accident the injured worker use leather glove . the workshop at the end of the weld work in the small bolter equipment , the welder proceeds to clean the inside of a metal stool , impregnate with thinner ( flammable liquid ) and with the help of a hammer and screwdriver proceeds to remove the oxide , when hit The screwdriver with the hammer produce a flash in the internal base of the stool , which produce a slight burn in the right hand of the welder . - At the time of the accident , the welder only u a glove on the left hand .. The injured woman perform cleaning and when cleaning the sink of the collection room pierce the finger with a fragment of glass . The injured worker begin the work of present the support mesh cloth on the floor , make an initial cut in the mesh of a section of 0.3 m x 2.0 m for the poncho , originate in the remain mesh wick ( tip with prong ) protrude . When try to make a second mesh cut , it be position at the edge of the remain mesh with wick to prevent them from curl , at which point it try take your shear and remove the right foot of the mesh cause the mesh to roll up and embed a wick ( tip with pole ) through the left boot cause the injury . At the time of the accident the worker be wear safety boot . During the die cut of the feeder ( PEAD geomembrane blanket weld seam ) to store the extruder , the stylet blade come in the direction of it left forearm , result in blunt short injury . On Sunday , 15 , the collaborator go to the medical center say that he have an accident 3 day ago when he perform internal maintenance work on the heat exchanger , define a a confine space and at risk of burning with acid . When leave the confine space , the employee remove the protective glove without have pa through the emergency shower ; At that moment , skin contact occurs with sulfate , generate the lesion . When an employee of MILPO Lima visit the facility , when he be at level 2900 , wait for the personnel cage to go up to level 4070 , drop of water fall from the ceiling from a height of 2.20 meter approximately , product of a slight filtration in the crown ( sustain with shotcrete ) , a drop enters the right eye cause discomfort in the right eye . According to the employee , at the time of the accident the lens have be remove to clean them , this happen after the visit to the interior of the mine . In circumstance that the collaborator perform the cleaning of the ditch 3570 , 0.50 cm deep , remove the pipe of 2 `` HDPE material with an estimate weight of 30 Kg . Together with two collaborator , when push the tube to drain the dune , the collaborator be hit on the low right side lip produce a slight blow to the lip . At the time of the event , the collaborator have a safety helmet , glass and glove . During the field trip , on LT 01 of the Lajes target , Junior da Costa official step on a wooden stump that be on the ground , approximately 5 cm , which pierce his boot wound the sole of the right foot . At the time of the accident , the employee be use all the PPE require for the activity and have his hand free . The employee be take to the hospital , where he go through medical care , and be release to return to his activity the next day of work . When handle a lever to move the sludge , the employee move it by make a pendulum movement and strike his chin . At level 3490 gallery 447 , after perform the manual unlock on load , the worker prepares to cut the sacrificial mesh that be expose after the previous turn shot , place himself under it with a 12-inch shear , when cut the fifth suddenly strain wire of the mesh return to his face casionándole the injury described . During the activity the worker use his safety glass . In circumstance in which the adjutant of the scissor bolter come down by the team 's ladder - last step - it slide from an approximate height of 0.9 m. and fall sit on the floor . At the time of the accident , the person involve in the use of the helmet ; there be no rock or material in the crash site . At level 2900 at the entrance of the locomotive workshop , the welder proceeds to inspect the mining car and identifies that the No . 24 car have bearing problem , informs his partner about this find and decides to enter the car to the workshop , so it operates the swing arm type mona of 15 KG . of weight to move the direction of the railway towards the central OP , be at this moment that push the rocker with the weight of his body until his right hand come in contact with the rock produce the injury described . At the time of the accident the worker be wear the safety glove of pad . when handle a sample in the laboratory , the sleeve of the employee 's coat have contact with nitric acid , absorb a small amount that come to reach the left forearm , cause a 1st degree burn . At the Eusébio bridge , there be a sudden brake in which several car have to brake quickly . The collaborator 's car fail to stop in time and collide with the rear of the car ahead . They be about 40km / hour . During torch cut activity of the new evaporator treatment fix , there be a rupture of the hose near the torch pen , cause the injury . employee report that upon initiate 615RLC front load activity , during the elevation of the aerial work platform , a rock fragment from the roof of the gallery be drop , reach it face , cause the lesion . When remove the cap from the wear plate of the Warman LX-BB-01 pump , the left hand of the employee who be with the glove slip come to have contact with the cut part of the board . The servant would remove the dish from the bowl of the sink and when pick up a set of plate , there be one of them with the broken / broken edge , cause injury to his 3rd chiropactyl from his right hand . Once the topographic survey in the Stp . 440 ( East zone ) , the victim and his co-worker , decide to continue with their work in the Stp . 440 ( West ) , for this the injured person walk behind his co-worker ( 10 to 15 meter ) , when arrive at the load zone ( intersection Rpa 175 and St 440 ) the injured person asks the sccop operator to stop to pa , once the equipment be stop , the victim pa behind his partner stuck to the gable , try to avoid the accumulation of water , when he take the third step into the puddle , the injured person step on the false and fall to the floor , cause the injury . The employee report that after carry out activity in the area of ​​the Expedition be to remove the overall and have contact with material that contaminate the sleeve , which cause 1st degree burn in the right forearm . At 22:50 hour in row 12 when the cell suction partner remove the suction hose , untimely splash of electrolyte solution in the left eye . Immediately he be refer to the medical service . During the execution of the area cleaning activity use a hoe , the employee hit against a fix metal structure in the area , come to reach the abdomen on the left . Collaborator be cleaning the sink of the Copper repulping area , at the moment of fill the truck with the shovel , he project sludge towards the lens ; soil them and obstruct vision . The worker indicates that when remove the lens to clean them , some mud particle enter the left eye cause discomfort . It be refer to the medical center for the correspond attention . the check list of the area of ​​the survey the operator slip in the foliage of the leucenas and fell . By participate in the general DDS held in the outside area of ​​the central locker room the employee be bitten by a bee . The employee report that when perform the maintenance activity of pump on the tunnel of the TC-020 , a he be pull out the rotor , struck the piece with the mallet that slip from his hand . Reaching the low part of your left leg , cause the injury . employee be remove the strap from a chemical container a it project toward him reach his low lip and anterior chest , the strap be contaminate with caustic soda and cause a 1st degree burn . On September 17 , 2016 at approximately 8:35 pm , during the preventive maintenance of the G2142 debark machine , the bearing assembly be make on the anode cleaning roller ; When fitting the bearing in it final position , the staff use a chisel and a 4-pound rope to position the bearing . The worker place his left hand near the head of the chisel and warp , in these circumstance a splinter be embed in the proximal part of the thumb of the left hand , immediately the collaborator communicates to the supervisor and be evacuate to the Medical for review . The employee be perform maintenance of the blower , when the residual water projection occur on his face . In an attempt to remove PPE , the injured person have have contact with contaminate glove with the right eye cause irritation . The lubricate technician Alfredo make the oil fill to the reducer D-100 , in which , he notice an oil leak ( tear ) between the connection of the hose and the reducer , correct the leak . Once the work be finish , he go to the lubricant workshop where he remove the glove and observes that both hand be affected by contact with the hot surface and go to the medical center where he be treat . At 14 : 55h on 27 September , a worker from Confipetrol carry out industrial cleaning of the outside of the acid reduction tank D2055 , to check the progress of the helmet mask ; moment that hose pipe be release that be secure with pressure clamp ( for water and air ) , impact lip Being 05:30 be . Approximately Marco and Isidro TORRES they be perform the pipe standardization of the CX 771 / CX-983 Nv . 1940 ; in moment that Marco lift the air pipe over the spike , this seat and the pipe impact on the worker 's safety guard . Being 5:15 a.m. in the N. in the NV 1710 CX 018 , the mixkret operator be wash the mixkret 116 with a hose with water under pressure , it be necessary to change the location ; from the right side to the left and He proceeds to pull the hose then slip and feel that the left foot bend . During the withdrawal of cathode sample the employee come to press the finger with the tool that cut the sample . At the office of Incimmet , in circumstance that an environment be be set up to place cleaning material , a wooden strip be place between the staircase structure and the container , this strip be not cut to size , so the accident victim He coordinate with his partner to put it under pressure use a hammer while hold with his right hand the frame , this pressure place strip push to that side of the container create an opening between the corrugate iron and the wall , at that time , continue to hit the ribbon , This fall cause the wall of the container to return to it initial position , press the tip of the little finger of the right hand against the corrugate iron cause the accident . Employee assist in the support of the gate , while the other the tie of the canvas in the frame , and by press the rope so that the canvas stretch , the metal structure move , come out of the wooden support , fall and strike against the employee 's face , cause a cut in the right superciliary . When ignite the furnace 07 of the battery I , there be reflux of hot gas , reach the face of the employee . Being the 01:30 hr , After the cathode go through the pre estriping , the sheet be detach and bend to the cathode of it position , the operator with the assistant lift the cathode by the head to position it in the tranfer at that moment the detach sheet exerts pressure on the cathode hit the palm of the left hand of the operator with the head and the transfe , activity be paralyze and the collaborator be refer to the medical post by the head of the guard . Being approx . 3:10 a.m. Mr. Denis make the mesh place in a ventilation plug up a ladder , while try to do a wire tie , suddenly have an imbalance due to the manipulation of tool fall from the third step , propiciándose a blow in the right knee and a wound of the wrist of the right hand . Later he be evacuate to the post where he receive first aid . The employee report that upon initiate 615 RLC front load activity while perform the emulsion preparation for use there be a displacement of a small rock fragment from the ceiling reach his left forearm After the welder complete the weld work to reinforce the form in the deepen , he walk towards the distant truck at about 40 mt , at which point the welder step on a fragment of rock of 5 cm x 10cm x 5cm approx . which generates that the foot flex and generates the injury in the worker . At 18:40 hour , in moment when Mr. Claudio tipper operator readjust the nut of the rear tire on the right side of his vehicle , use a wheel wrench and a tube a an extension to generate great force of torque ; which be Mr. Wilber held him in his back ; suffers a contusion in the palm of the right hand a the extension to his partner slip from his hand . When enter the caustic soda containment basin to place the hose to make the suction , at this stage there be steam formation , strike the employee in the right and left calf . During the activity of revegetation of the slope of the pit pit II , the employee hit the sledgehammer on the rod for installation of the lifeline , it hit his right leg , cause a slight excoriation . Employee report that he perform an activity in the area of ​​the Ustulación , under the coordination of Maintenance when he be hit by dust from the ustulado , cause irritation in the eye region . On December 13 , the accessory couple ( gun - hose ) of the high pressure pump ( BAP ) be make to clean the demister of the cool tower G2172 . carry out the complete couple , they turn on the BAP to start with the start test , at that moment the hose come off the gun and hit Mr. Emerson who be hold the gun . The maid while walk in the electrolysis area , stumble and fell next to the bathroom in room B . Employee report that he perform solder activity when he be hit in the eye region by dust that be found in the thermal insulation , cause irritation . Mr. Marcelo withdrew foam from the ajax oven , use the metal spoon to empty it into the foam waste container . At that moment splash of slag residue , impact the face and generate a surface burn . The worker be wear a face mask . At 13:40 hour , Mr. Jose perform the erase of the earthenware of section 30 , when turn on the machine of alizado ( iron ) of concrete , this tour abruptly imprison his left hand between the command of the equipment and the metal structure , cause an atriction in the back of the left hand . During the reduction activity in the tube , the employee attach the tube to the walrus , and when he hit the tube with the hammer , he untied the walrus by reach his finger . On 01/02/2017 , at 10:15 a.m. , when perform the Soil activity , the collaborator Alex use a pickaxe to assist in the opening of the collection hole . As he struck the ferranta on the ground , he have a fragment of rock project on his forehead cause a small cut . The activity be paralyze for a few moment and it be not necessary to go to the doctor , the employee continued the activity normally . On 05/02/2017 , at 10:40 p.m. , when perform geological mapping activity , the geologist Manoel da Silva accompany by the geologist Luciano do Santos and Dayme have to make the cross to the other side of a fence barbed wire , know in the region a a goat . It be a fence that from the base up to about 60cm in height be make by rod interlaced horizontally and upwards make with little barbed wire barbed , around 15 to 20cm . I jumped on the fence , and still on the fence I manage to `` sweep `` the vegetation with the left foot but even so while support the foot on the ground a stump of approximately 10cm x 1cm come to break the sole of the boot and cause the perforation in the left foot at the height of the finger . The collaborator complete the misalignment of the nut on the left side of the chute scraper of strip No . 9-2 , when he get up he turn and hit the head guard with the rail , hit the lens generate the injury . During the preparation for the office cleaning activity , the employee make use of the stair rail , it have contact with the clamp use to lock the signal board . By average 8:23 be at the office of Ajani , Liliana prepares to store folder in the warehouse , to go to the place it come out of the iglu , when go down the two step it do so diagonally so it sits the left foot on the edge of the second step cause the foot to bend Left inward , it stabilizes quickly avoid fall to the ground . The industrial cleaning worker Cristian be perform the cleaning activity of the gutter , strike with a wall of the same , to remove the solid solution that be form . In that At the moment the operator 's hand slide and impact on the edge of the gutter , cause a blow on the little finger of the left hand . Employee to perform painting of the floor of the fuel tank area , he need cleaning , and by pour water-thinner on the floor , the bucket slip out of his hand and the mixture project onto his left shoulder and low lip , cause redness and burning . At the end of the concrete activity , the employee turn off the concrete , and when roll the handle to make the return of the equipment warehouse the same bumped the tip of the mangote in the inferior lip cause hematoma . During the mark of the management point , the supervision and the breeder enter the work to carry out the ventilation inspection , for which the survey work stop to turn on the fan and proceed with the air flow measurement . When the fan be turn on due to pressure , it break the fasten point of the toe and the sleeve fall to the floor generate a chicoteo from gable to gable , product of the chicoteo a fragment of the aggregate of the shocrete be project on the face of the injured person produce the injury . Approx . 10:00 pm . Mr. Victor at the time he make a visual inspection of scaffold , suffer a slight blow to the level of the right ear with the metallic extension of the chute of the conveyor chain . The employee report that he perform his routine activity in the Foundry area when it be necessary to fit the last ZAMAC ingot of one of the package . At this point , the ingot slip and hit the back of his right foot , cause pain . The safety footwear worn by the employee have a steel toe and a metatarsal protector . The employee report that he perform his routine activity in the area of ​​Electrolysis when , when try to position one of the cathode sheet on the easel , it hit his sleeve and cause a cut in the same and superficially in the left hand . Employee be engage in adjust metallic shape use a tether , and strike the shape , the tether cable hit the lifeline , project it hand into the metal structure of the shape , cause a superficial injury to the ring finger of the right hand . At 04:00 h on 05/19/17 , the mechanic on duty of section 40 Antonio be observe in the activity of withdrawal check out of POM D071 , at this moment he be impact by a pulp of the line of discharge stuck , cause irritation in the right part of the neck and ear . The mechanic be refer to the medical center for evaluation . Upon enter the building , the maid slip and fell just behind the automatic door , in front of the entry mat . The floor be wet and slippery . In circumstance that the worker prepared food in the electric pot , by not ensure the lid fall on his head cause the injury described . In circumstance where the worker and two partner be place a killer bomb in the basket of a Manitou team , the bomb hit the index finger of the right hand against the basket . Approx . 18:40 hour , Mr. Luis maintenance team of mobile equipment , adjust a bolt of the front loader J005A , at which time his face be impact by the key use for this activity , produce a slight cut in the surface of the face . He be transfer to the medical service , attend and register . On the surface , Comedor the worker of the company C &amp; C make the cut of lemon at that time imprison the knife generate a movement and impact on the first finger of the left hand cause a slight cut . Employee report that by remove the zinc sheet from the cathode to take it to the easel , it slip from his hand , fell and hit his left foot . The collaborator move from the infrastructure office ( Julio to the toilet , when the pin of the right shoe be hooked on the bra of the left shoe cause not to take the step and fall untimely , cause injury described . During the environmental monitoring activity in the area , the employee be surprised by a swarm swarm of weevil . During the exit of the place , endure suffer two sting , be one in the face and the other in the middle finger of the left hand . The Employee perform the activity of strip cathode , when pull the cathode sheet his hand hit the side of another cathode , cause a blunt cut on his 2nd finger of the left hand . At 10:00 a.m. , when the assistant clean the floor of module `` E `` in the central camp , she slip back and immediately grabbed the laundry table to avoid fall to the floor ; suffer the described injury .</t>
+          <t>moment forklift operator go manipulate big bag bioxide section ladder lead area ​​manual displacement splash spend height forehead fissure pipe subsequently spill leave eye collaborator go nearby eyewash clean immediately medical center overheat bar row cell spark produce project manage reach chief guard corridor produce degree burn neck auxiliary wheel cathode crane g2133 change area bear heated hit hammer chisel end bear track detachment bearing piece occur impact thigh right leg produce cut ambulance call transfer clinic operator open container subsequent loading silver concentrate open gate afterwards try open second door product open latter open impact handle safety lens generate injury leave cheekbone face operator loosen a30 truck steer cylinder bolt power cable socket force exert favor equipment bolt suddenly retire employee hit hand structure equipment cause injury operator g deslaminadora section unlock sheet zinc stuck enter slide stack table require support mr helps hold sheet place entry chute slide moment release blade tilt brush mr left leg collaborator go nearby eyewash clean immediately medical center operator willing manually displace zinc sheet adhere aluminum cathode moment blade detach blade release cathode bend graze collaborator right hand produce small cut knuckle finger worker use glove leather worker transfer medical unit aid plant operator semikneele lift lid gate kg distributor box secondary mill no no right knee slip presence debris spill platform floor grating give extra effort leave leg generate muscle contracture level access times engineer trainee planamieto enter verify split set place scissor support hold notebook pen leave hand inspect roof work lose balance step rock hold right hand rock floor cause injury worker time accident wear glove use difficult note employee clearing pipe tap right thumb flange cause little trauma instal ripp pin tractor d6tn1 ripper support arm slide press second finger right hand base ripper cause injury describe employee report lower cloth purification arrange cart grab pipe press left hand cloth cart end loading explosive work front master loader enter verify mooring blast accessory retire m hear sound fragment rock rolling support mesh direct gaze crown vertical form point small fragment rock 2x3x2 cm 36gr pass opening mesh sustain impact forehead time event collaborator helmet safety lens support sacrifice mesh opening support mesh employee perform adjustment tighten operation cutter blade work neglect key slip cause blade equipment hit he cause blunt cut right forearm carry activity cut electrowelded mesh work front assistant position foot end mesh leave end free moment assistant bend cut shear end free mesh return inertia hit partner safety len access santa novo area order open chop general move ahead team order open access come area steep slope gravel presence certain place access employee slip come unbalanced moment machete leave hand come slip right leg knee cause cut 3 cm workshop level box mechanic manipulate steel plate 60 cm x40 cm 5 cm place gutter workshop able remove scaler plate slide restrict right ring finger gable plate cause injury collaborator glove time accident park van cluster wooden sleeper board driver descend step board iron nail protruded long identify board submerge puddle water accident cause minor wound sole left foot time accident worker wear safety boot bypass level worker company operator bolter bolt team rolando assistant retire installing support helical bolt pink team mesh overhang gable teacher tell assistant cut mesh instant assistant finish cut mesh suddenly rise hit face cause injury describe general store store attendant remove compartment rubber mesh material classification mx1 mx0 weight lift approx position edge mesh place floor litter slightly imprison index finger right hand assistant cause minor cutting wound time accident injure worker leather glove workshop end welding work small bolter equipment welder proceed clean inside metal stool impregnate thin flammable liquid help hammer screwdriver proceed remove oxide hit screwdriver hammer produce flash internal base stool produce slight burn right hand welder time accident welder use glove leave hand injure woman perform clean cleaning sink collection room pierce finger fragment glass injure worker begin work present support mesh cloth floor make initial cut mesh section ponchos originate remain mesh wick tip prong protrude try second mesh cut position edge remain mesh wick prevent curl point try shear remove right foot mesh cause mesh roll embed wick tip pole leave boot cause injury time accident worker wear safety boot die cut feeder pead geomembrane blanket weld seam store extruder stylet blade come direction leave forearm result blunt short injury sunday collaborator go medical center say accident day ago perform internal maintenance work heat exchanger define confine space risk burn acid leave confine space employee remove protective glove having pass emergency shower moment skin contact occur sulfate generate lesion employee milpo visit facility level wait personnel cage level drop water fall ceiling height meter approximately product slight filtration crown sustain shotcrete drop enter right eye cause discomfort right eye accord employee time accident lense remove clean they happen visit interior mine circumstance collaborator perform cleaning ditch deep remove pipe hdpe material estimate weight kg collaborator push tube drain dune collaborator hit low right lip produce slight blow lip time event collaborator safety helmet glass glove field trip lajes target junior costa official step wooden stump ground approximately cm pierce boot wound sole right foot time accident employee ppe require activity hand free employee take hospital go medical care release return activity day work handle lever sludge employee move make pendulum movement strike chin level gallery perform manual unlock load worker prepare cut sacrificial mesh expose previous turn shot place inch shear cut fifth suddenly strain wire mesh return face casionándole injury describe activity worker safety glass circumstance adjutant scissor bolter come team ladder step slide approximate height fall sit floor time accident person involve use helmet rock material crash site level entrance locomotive workshop welder proceed inspect mining car identify no car bear problem inform partner finding decide enter car workshop operate swing arm type mona weight direction railway central op moment push rocker weight body right hand come contact rock produce injury describe time accident worker wear safety glove pad handle sample laboratory sleeve employee coat contact nitric acid absorb small come reach leave forearm cause 1st degree burn eusébio bridge sudden braking car brake quickly collaborator car fail stop time collide rear car ahead 40 km hour torch cut activity new evaporator treatment fixing rupture hose near torch pen cause injury employee report initiate 615rlc loading activity elevation aerial work platform rock fragment roof gallery drop reach face cause lesion remove cap wear plate warman pump leave hand employee glove slip come contact cut board servant remove dish bowl sink pick set plate break broken edge cause injury 3rd chiropactyl right hand topographic survey stp east zone victim coworker decide continue work stp west injure person walk coworker meter arrive loading zone intersection injure person ask sccop operator stop pass equipment stop victim pass partner stuck gable try avoid accumulation water take step puddle injure person step false fall floor cause injury employee report carry activity area ​​the expedition remove overall contact material contaminate sleeve cause 1st degree burn right forearm hour row cell suction partner remove suction hose untimely splash electrolyte solution leave eye immediately refer medical service execution area clean activity hoe employee hit fix metal structure area come reach abdoman leave collaborator cleaning sink copper repulpe area moment fill truck shovel project sludge lense soil obstruct vision worker indicate remove lense clean they mud particle enter leave eye cause discomfort refer medical center correspond attention check list area ​​the survey operator slip foliage leucena fall participate general dds hold outside area ​​the central locker room employee bite bee employee report perform maintenance activity pump tunnel tc pull rotor strike piece mallet slip hand reach low left leg cause injury employee remove strap chemical container project reach low lip anterior chest strap contaminate caustic soda cause 1st degree burn september approximately pm preventive maintenance g2142 debarking machine bear assembly anode clean roller fitting bear final position staff chisel pound rope position bear worker place leave hand near head chisel warps circumstance splinter embed proximal thumb leave hand immediately collaborator communicate supervisor evacuate medical review employee perform maintenance blower residual water projection occur face attempt remove ppe injure person contact contaminate glove right eye cause irritation lubricate technician oil filling reducer d which notice oil leak tear connection hose reducer correct leak work finish go lubricant workshop remove glove observe hand affect contact hot surface go medical center treat 55h september worker carry industrial cleaning outside acid reduction tank d2055 check progress helmet mask moment pipe release secure pressure clamp for water air impacting lip be approximately isidro torre perform pipe standardization cx nv moment lift air pipe spike seat pipe impact worker safety guard be mixkret operator washing mixkret hose water pressure necessary change location right leave proceed pull hose slip feel leave foot bend withdrawal cathode sample employee come press finger tool cut sample office incimmet circumstance environment set place clean material wooden strip place staircase structure container strip cut size accident victim coordinate partner pressure hammer hold right hand frame pressure place strip push container create opening corrugate iron wall time continue hit ribbon fall cause wall container return initial position press tip little finger right hand corrugate iron cause accident employee assist support gate tie canvas frame press rope canvas stretch metal structure move come wooden support fall strike employee face cause cut right superciliary ignite furnace battery reflux hot gas reach face employee hrs cathode go pre estripe sheet detach bend cathode position operator assistant lift cathode head position tranfer moment detach sheet exert pressure cathode hit palm leave hand operator head transfe activity paralyzed collaborator refer medical post head guard approx be mr mesh place ventilation plug ladder try wire tie suddenly imbalance manipulation tool fall step propiciándose blow right knee wound wrist right hand later evacuate post receive aid employee report initiate rlc loading activity perform emulsion preparation use displacement small rock fragment ceiling reach left forearm welder complete welding work reinforce form deepen walk distant truck mt point welder step fragment rock 10 cm 5 cm approx generate foot flex generate injury worker hour moment mr tipper operator readjust nuts rear tire right vehicle wheel wrench tube extension generate great force torque mr hold back suffer contusion palm right hand extension partner slip hand enter caustic soda containment basin place hose suction stage steam formation strike employee right leave calf activity revegetation slope pit pit ii employee hit sledgehammer rod installation lifeline hit right leg cause slight excoriation employee report perform activity area ​​the coordination hit dust ustulado cause irritation eye region december accessory couple gun hose high pressure pump bap clean demister cool tower g2172 carry complete coupling turn bap start start test moment hose come gun hit mr hold gun maid walk electrolysis area stumble fell bathroom room employee report perform solder activity hit eye region dust find thermal insulation cause irritation mr withdraw foam ajax oven metal spoon foam waste container moment splash slag residue impact face generate surface burn worker wear face mask hour mr perform erase earthenware section turn machine alizado iron concrete tour abruptly imprison left hand command equipment metal structure cause atriction leave hand reduction activity tube employee attach tube walrus hit tube hammer untie walrus reach finger be perform soil activity collaborator pickaxe assist open collection hole strike ferranta ground fragment rock project forehead cause small cut activity paralyze moment necessary doctor employee continue activity normally pm perform geological mapping activity geologist accompany geologist luciano do santo dayme crossing fence barb wire know region goat fence base 60 cm height rod interlace horizontally upwards little barbed wire barb 20 cm jump fence fence manage sweep vegetation leave foot support foot ground stump approximately 10 cm 1 cm come break sole boot cause perforation leave foot height finger collaborator complete misalignment nut leave chute scraper strip no get turn hit head guard rail hit lense generate injury preparation office cleaning activity employee use stair rail contact clamp lock signaling board average office ajani prepare store folder warehouse place come iglu go step diagonally sit leave foot edge second step cause foot bend leave inward stabilize quickly avoid fall ground industrial cleaning worker cristian perform clean activity gutter strike wall same remove solid solution form moment operator hand slide impact edge gutter cause blow little finger leave hand employee perform paint floor fuel tank area need clean pour waterthinn floor bucket slip hand mixture project leave shoulder low lip cause redness burn end concrete activity employee turn concrete rolling handle return equipment warehouse bump tip mangote inferior lip cause hematoma mark management point supervision breeder enter work carry ventilation inspection surveying work stop turn fan proceed air flow measurement fan turn pressure break fasten point toe sleeve fall floor generate chicoteo gable gable product chicoteo fragment aggregate shocrete project face injure person produce injury approx pm mr time visual inspection scaffolding suffer slight blow level right ear metallic extension chute conveyor chain employee report perform routine activity foundry area necessary fit zamac ingot package point ingot slip hit right foot cause pain safety footwear wear employee steel toe metatarsal protector employee report perform routine activity area ​​electrolysis when try position cathode sheet easel hit sleeve cause cut superficially leave hand employee engage adjust metallic shape tether strike shape tether cable hit lifeline project hand metal structure shape cause superficial injury ring finger right hand mechanic duty section antonio observe activity withdrawal check pom d071 moment impact pulp line discharge stick cause irritation right neck ear mechanic refer medical center evaluation enter building maid slip fall automatic door entry mat floor wet slippery circumstance worker prepare food electric pot ensure lid fall head cause injury describe circumstance worker partner place killer bomb basket manitou team bomb hit index finger right hand basket approx hour mr maintenance team mobile equipment adjust bolt loader j005a time face impact key activity produce slight cut surface face transfer medical service attend register surface comedor worker company cut lemon time imprison knife generating movement impacting finger leave hand cause slight cut employee report remove zinc sheet cathode easel slip hand fall hit leave foot collaborator move infrastructure office toilet pin right shoe hooked bra leave shoe cause step fall untimely cause injury describe environmental monitoring activity area employee surprise swarm swarm weevil exit place endure suffering sting face middle finger leave hand employee perform activity strip cathode pull cathode sheet hand hit cathode cause blunt cut 2nd finger leave hand be assistant clean floor module e central camp slip immediately grab laundry table avoid fall floor suffer describe injury</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In the sub-station MILPO locate at level +170 when the collaborator be do the excavation work with a pick ( hand tool ) , hit a rock with the flat part of the beak , it bounce off hit the steel tip of the safety shoe and then the metatarsal area of ​​the left foot of the collaborator cause the injury . During the unload operation of the ustulado Bag there be a need to unclog the discharge mouth of the silo truck . In perform this procedure , there be a maneuver of unhook the hose without the total depressurisation of the mouth , project ustulado powder in the collaborator cause irritation in the eye . The collaborator report that he be on street 09 hold in his left hand the volumetric balloon , when he slip and when place his hand on the ground the volumetric balloon end up break cause a small wound in his left hand . At approximately 04:50 p.m. , when the mechanic technician José of the Tecnomin verify the transmission belt of the HM-100 pump at the Acid plant , he proceed to turn the pulley manually ; unexpectedly at that instant the electrician supervisor Miguel of the EKA Mining grab the transmission belt to verify their tension , at which point the finger trap . While instal a segment of the polyurethane pulley protective lyner - 60x4x5cm weigh 1.2 kg - on the head pulley of the ore winch , when the pulley be rotate to compress the lyner inside the channel , it fall from it housing 1.50 m rub the right side of the worker 's hip , generate the injury described . Due to the accumulation of Waelz on the conveyor and trailer of the Filter 08FI0502 , the employee perform the cleaning of the shutter use the air lance , when he be surprised by the fall of the product that be above the door , passing between the neck and the collar of the aramid jacket and cause burn in the neck and shoulder . The worker Manuel be make the disconnection of the power cable of the gate that be at the intersection of Manco street with Cajamarquilla in order to remove it . In circumstance that Mr. José worker of the company ITS , be remove the rope tie in the body of the gate , this yield and fall pull the warn post which hit the helmet of Mr. who He be stand at his side . At the end of the rock break at the intersection of the ramp -1055 and the opening of the access to the ventilation chimney , the master loader identifies rock on the mesh proceed to unload them , at the end he decides to verify if there be still remains by position himself under the line of fire , at which time a fragment of rock fall - 5x4x3cm . ; 180 gr - between the cocada mesh impact between the lens and the helmet cause the injury . When use the griff wrench to unscrew the rod from the probe the key come to move by press the employee 's finger against the probe . When replace the telescopic expansion joint of the HDPE pipe of the storm drainage pump system , it report that the piece involuntarily move when it be position in the holder , press it finger against the holder , cause a wound 1 right chemo . While perform the cut of the mesh protrude in the gable of the work , the assistant loader be position at 1.40mt . on the floor use a portable ladder which be held at the base by the master loader , at which time the loader assistant loses balance and when fall be held by the mesh with the hand hang at 0.80mt . of the floor cause the injury . The operator be in the center ( Demag IV ) , perform maintenance . When transport the hydraulic cylinder with the help of another operator the official be unbalanced come the cylinder that carry to press his finger ( Left thumb ) against the pillar of support of the oven specify below ( figure ) . During the start of the neutral leach process , the employee Jhonatan proceeds to open the air valve of the tank Airlift a circumstance in which the process solution return through the chimney , the solution come into contact with the arm and right foot . At a time when two assistant be carry a bag of cement weigh 42.5 kg to the lamp of the loader - suspend about 10 cm from the floor , the left foot of one of the assistant slid and hit the edge of the baton . The operator clean with spatula spear through one of the window of the boiler , at that time by force action hit the window frame , cause injury to the little finger of the left hand , the operator have all EPP for boiler cleaning . On pit 831 of level 1910 when radial drilling be perform of negative hole with the simba M4C ITH No . 5 equipment , when the assistant of the equipment operator make the change of the drill bit , the metal bar ( hammer ) be release from the couple of the rotation unit and when abruptly withdraw his hand hit the back of his right hand against the team 's structure . At the time of the accident the team be Paid . During the discharge of waste , the operator proceeds to remove a bag that be under the hose roll , in this circumstance one of the end of the hose move in the direction of the face of the driver , project the liquid contain in it and impact it on the ear and part of the face . In circumstance that the Operator 176 be go from level 620 to level 640 , he notice that the hydraulic pump 's inspection cover ( 18 `` x32 `` x3 / 8 `` , 15 Kg approx . ) Was about to fall , so he stop the equipment , activates the cat and climb up the upper part of the equipment and in moment that accommodate the cover it slide on it middle finger cause the injury . During the placement of the last support mesh cloth of the work , in moment that from the ground the injured collaborator reach the electrowelded mesh to the operator of the scissor bolter position in the basket , when press on the mesh , one of the protrude end of the mesh , cross the leather glove cause an injury in his right hand . After have carry out the mechanize support with the Scissor # 200 , the heavy equipment operator pick up the water supply hose towards the drum of the equipment and , while He be head towards the cabin of the Scissor on the way on a piece of rock - 10 cm high approx . - which displaces by slide his right foot cause the injury described . Being approximately 14:25 h when supervise the line clamp of the POM D071 Roy Canario return to the thickener D1304 hit his nose with the metal chute out of operation . The employee , perform the truck 's unload operation , an iron bundle press his right finger and injured his left arm . After load two blown hole from the previous blasting with the use of a telescopic ladder , the master loader pull the ladder detach from the upper support point , about 3 mt . of height , a fragment of rock - 3cm x 3cm x 2 cm ; 54 gr - which be project by the right end of the ladder hit the master loader on the cheekbone and upper lip produce the lesion described . The master shipper use his safety glass . Parking the equipment Dumper ° 18 in the maintenance workshop , the mechanic asks the operator to back off the equipment for wash , then the operator start the reverse gear with the cab door fully open , upon reach the wash area ( 8 meter behind ) , brake and the cabin door close untimely and hit your face , cause a minor injury . In the area be the mechanic at floor level in a safe place . The worker carry out the disassembly of 03 scaffold body in the pulpomatic of the thickener D2251 . the dismantle of the base of the scaffold , locate approximately one meter high from the floor of the sump , the rivet of the anchor support of the platform be broken , cause the fall of the worker and impact the right knee with the support that I be anchor in one of the horizontal of the scaffold structure . Employee report that when handle the air conditioning press the 2nd right chirodactilo cause a contusion . During the cleaning of the 16 `` vertical pipe use the hydrojet equipment ( high pressure hose ) , the hose return due to obstruction of the pipe with residue , reach the operator who be actuate the equipment pedal . Being 2:40 be . Approximately , Luna - master loader of the company Incimet be carry out the load activity of the front in the Cruiser 771 of the 1970 level ; in moment that be tie the pentacord of the crown and try to reach the fanel on the left side , loses balance by a movement of the ladder and fall to the floor result in the accident . In moment that the worker-mechanic be the workshop of maintenance , the wire of his mining lamp be hooked with a drill hole ( 4.0 Kg ) that be on the work table of the workshop , which fell 1.m and impact his left foot cause a minor bruise . At the time of the accident the collaborator use his safety boot with steel toecap . When move a roll of electro-welded mesh of 95 kg of weight to place on the hopper of the truck , two operator pull the roll of mesh to bring it to the hopper of the truck at which time the imprisonment of the left hand of one of the operator between the mesh and the body of the hopper generate the described injury . At the time of the accident , both operator be wear PVC-type safety glove . Being 12:20 pm . Approximately in NV 1680 OB5 CX 018 , Mr. Cesar - Operator of mine service , in an instant that he be pick up the cat position one of the truck crane of plate ACL 804 , when raise with the right hand the low part of the cat be indexed the index finger of the left hand , between the body of the cylinder valve of the cat and the valve of the turntable that be in the upper part . after discharge sodium hydroxide and disconnect the hose , the employee place next to the demineralization suction pump , which be turn off , receive projection from the pump sensor , cause a 1st degree burn . Being 11:30 be . approximately , in the Nv . 1940 , CX-791 . Mr. Francisco - Operator of the Scoop 18 , observes a polyethylene pipe thrown on the road , proceed to low his equipment and when be found by lift the pipe to the hook of the right gable , a piece of rock that be suspend in the lectro-welded mesh , impact on the operator 's right eyebrow , cause the injury . When conduct inspection to evaluate activity to be carry out in the pump house of the Ustulation steam station , it be hit by sulfuric acid spill from a line locate above the pump house of the thermal recovery boiler . When conduct inspection to evaluate activity to be carry out in the pump house of the Ustulation steam station , it be struck by sulfuric acid spill from a line locate above the house of thermal recovery boiler pump . The employee be sand a piece in the Electrolysis at the end of the operation , when the protective cap of the disk spun to the back of the left hand . In the weld workshop of level 3620 ( Ex -450 tunnel quinoa ) , in moment that the assistant raise a wooden strut - 3m long x 4 `` diameter - 20 Kg of weight , to place it on the work table at 1.30 m of height , tread another wooden strut place on the floor lose the balance fall at the same level lie laterally on a concrete wall cause a bruise on the left shoulder . The employee be perform carbon steel pipe mark activity when his helmet be struck by a tube , cause a scalp wound due to the impact of the helmet 's sheepskin . During the maintenance on the LX-P-205B pump , there be the projection of silicate pulp , reach the right leg of the employee . Being 10:50 be . Approximately , in the workshop of mechanical maintenance ( surface ) Mr. Orlando of boltec ) and his assistant Mr. Macedonio make the cut of the link to shorten the distance of the chain and hold the injection hose of resin , instant that the saw blade leaf it cut position , affect the second finger of the left hand cause the injury . During the test of the soft starter of the engine of belt 03 the collaborator Igor move around the site and at approximately 19:45 pm fall into a trench for electric cable , ( 0.90m deep ) , the same a be found partially discover . The clerk be peel and pull a sheet come another one that struck in his 5th chirodactile of the left hand tear his PVC sleeve cause a cut . During the process of wash the material ( Becker ) , the tip of the material be broken which cause a cut of the 5th finger of the right hand at level 2900 , during the ore haul activity with locomotive from the OP2 to the bine , at time when the convoy be travel through the hopper of the OP1 , the assistant motorist who be rid in the saddle hold the pole be struck weakly by a split set which be suspend in the HDP pipeline in the gable the work at 1.65 meter from the floor . At the time of the accident , the assistant be wear all his safety equipment and be wear a seatbelt . At the time of the accident the Split set only accompany the movement path of the convoy . At time that the worker : Technician and Mr. Orlando of Boltec 2 of Cia . want to pa the hand stacker by a sardinel , the technician pull the hydraulic arm , while Mr. be push from the nail of the equipment , when reach the trench the rim be tie and the team turn forward fall on the technician . In phase III of the concentrator plant , the maintenance personnel carry out the removal of transmission belt from the flotation cell of Pb cleaning ; at the moment the mechanic remove the belt he lean on his left leg which slide towards the grate floor , leave his foot between the two pipe generate the lesion described . The work be carry out at the floor level and at the time of the accident , the staff have put on their safety equipment . The employee report that he be work with brushcutters near the Stone when the blade of the equipment collide with a piece of metal that be project toward his leg , cause injury to his left leg . When the mechanical technician proceed to perform the maintenance of motor support of a tipper , he decide to bring a wooden block , for which he move to the temporary storage of material - locate at 10 m. of the tipper - in circumstance in which he sought the cue ; the camera of a tire burst suddenly ( it be on the right and 2 m. of the involve ) ; the thunderous sound affected the right ear of the worker . The tire that explode have 110 psi of pressure approximately , at the time of the event they be stack 3 pneumatic , the second be the one that explode ( present cut - place where the energy be release ) . The tire that be in the upper part be not project . The tire be left by the previous guard ( night shift ) , the storage area do not have a roof . In the place of the event only the affected mechanic be locate ( at 2m . ) And at a distance of 70m . there be other worker . In the area 5 truck be park , none of them suffer damage to the glass . In level 2930 access Siemag camera roof , at time when the piquero civil operator look for a stilson key of 12 `` inside it metal tool box , open the metal lid ( 1m x 0.6m x 0.7m ; 5 Kg of weight ) with both hand , then push the lid backwards position your right hand near the base of the lid cause an incentration of your fifth finger between the lid and the structure of the box at the height of the hinge . At the time of the accident , the employee wore pad glove , which reduce the consequence of the injury . During the change of rim position 1 of the Jumbo ° 15 , at moment that the mechanical technician with the support of the electrician disengage the bolt , when loosening the fourth nut with the help of a lever ( metal tube 1 `` diameter , 1.8m of length and a weight of 5.5 Kg ) , this bounce effect return to the initial position hit in the palm of the left hand the electrician technician cause the injury . The employee at the time of the accident use their PPE 's include leather glove . At 21:15 hour on 07/18/2016 , the collaborator Warrin ( welder ) , when try to inspect a crack point in the INLET of the G2143 laminator , slip and fall to the same level hit his face and hand , he be immediately transfer to the medical service for evaluation . The employee report that he be drain ammonia , use a a refrigerant , into a container of water when splash of the solution drain onto his face . When open the access ladder of the people carry Truck the employee have his right hand press into the support bracket of the same , suffer a superficial injury . The employee of partner company GR report that she be cut watermelon when she injured her 2nd chirodactilo of the left hand with the knife . At time when the worker be cleaning the long hole of the production mesh in negative , when remove the polyethylene pipe it suffers a clog inside the drill , which product of compress air pressure be release by eject detritus and fragment of rock inside the hole impact the worker 's forehead cause a cut . The employee Mr. Nilton make the opening of the visit to unclog , at this moment occur projection of hot material , occur the accident . At level 3450 access 4 A2 , the operator of the Scissor # 200 perform the support of the crown , at which time a piece of rock ( 13cmx6cmx2cm ; 54g ) pa between the cocada of the support mesh , from a height of 1.60 meter , towards the platform of the team break into particle one of which reach his right eye cause the injury . At level 2995 access # 6 A1 while the operator of the Scissor # 187 carry out the support of the right gable , from the platform it be arrange to place the Split set in the drill in the squat position to be introduce by the bolt , moment in which the which between the cocada of the support mesh fall from the crown a piece of rock ( 5cmx4cmx2cm ; 112gr ) from an approximate height of 2m impact on the cervical region of the collaborator , cause the lesion described . At the time of the accident the crown be held and the collaborator use his safety glass and glove . The employee be perform cut activity on a carbon steel pipe attach to the band saw machine . Due to uneven weight distribution , the tube move downward and the other end be project upwards , press the thumb . On the surface , in the din room of employee of the unit , while the collaborator perform the chicken habilitation for lunch use a kitchen knife , it come into contact with the distal part of the second finger of the left hand cause the injury described . During the accident the employee do not use his specific height glove for this type of work . During the maintenance of the access , at the moment the assistant place the mini split set in the adapter , the clamp - which be lock - return to it initial position hit the collaborator 's hand cause the described injury . At the time of the accident the team be in a sustain area , the arm of the jumbo be at a height of 0.80m from the floor and the employee be wear rubber glove . Employee be prepare rice use a utensil type skimmer to stir inside the pressure cooker when part of the cable broke , reach it hand cause a blunt cut . The technician Operator when head towards the zone of lift container of dust of zinc in the Section 50 , u a space between base of tranquera and sardinel , slip in the edge and raspándose left side of thorax . He be treat at the medical center with local treatment , return to his work area . Being 10:50 a.m. approximately , in the maintenance workshop of the E.E Unicon , in circumstance that two mechanical technician place the protective plate ( 30 kg . ) of the Mixkret 111 fuel tank , At the moment of attempt to bolt this protective plate it slip from the hand of one of them fall directly on the instep of the left foot , cause the injury described . After carry out the supply operation of the zinc powder container use the crane to move it , the employee close the low lock of this same container and when make the movement to push the lock make an excessive effort with the thumb of the right hand , cause sprain . In the probe 5068 bore BAPDD00146 , around 15:00 hour , the polling assistant Luciano da Silva perform the maneuver of descend rod , lead the rod to the gutter , but this when not lean suitably come to escape the gutter return toward the easel . His hand have slip and his little finger be between the rod and the easel . Realizing that the shaft have return , he release it . immediately , but his little finger be partially hit by the rim of the rod against the easel result in a cut . The auxiliary be take to hospital and attend to , the wound result in 5 point and the be release for administrative activity . Employee be do cleaning near the area of ​​the pneumatic conveyor when he be hit by a drop of sulfuric acid on his upper lip . As the employee clean the thermal recovery boiler use an air boom , the hose loosen from the pipe connection , draw a jet of compress air toward his right ear , cause impact noise . During the exchange of the shock-bearing housing , the employee use a sledgehammer to hit the pipe . At this stage of the activity the hammer hit the stepladder that be very close , come to ( hand tool ) to be project onto the left hand thumb , which be hold the piece . At time when four employee low a metal sheet ( 1.5mx1.8m ; m 80Kg ) towards the floor from a height of 20 cm . , The assembly assistant do not timely remove the hand , trap his ring finger between the iron and loose earth cause a contusion on his ring finger . The collaborator at the time of the event to use their maneuver glove . During the withdrawal of the metal form support screw in the Inside of well 2 , when the bolt of the chain holder be loosen , the employee and a helper exert force on the combination wrench , when the bolt come to loosen immediately , press the ring finger of the employee 's right hand against the support . When perform the Doosan RB-10 equipment hammer repair , the employee try to remove the suspender with the support of a 25-pound rope ; At the moment of receive the blow the brace or bolt cause a splinter to be release , expel and impact on the low left limb cause metal embed in it . The collaborator do not notice immediately . Employee report that when return the anode to the easel the even bumped into the side of the easel come to swing and hit his right shoulder , cause bruise . In circumstance that the operator perform the lift of an 8-inch vitaulic pipe , this be imprison in the structure of the rail of the truck , instant that push the pipe with the right hand this return to it initial position hit the middle finger of the employee cause a bruise At level 4150 Geology - Surface , master mine to temporarily repair water leakage from a 4-inch diameter metal distributor , make a cut of a rim chamber strip of 4cm wide x 100cm long make Using a cutter , his partner stretch the camera when cut with force the edge of the cutter make contact with the index finger of the left hand cause a superficial cut . At the time of the event the worker be wear bos glove . During the mechanize support activity in the level 3450 - Tajo when lift the support mesh on the platform of the Scissor equipment , the employee with a stumble feel a pain in the heel of the left foot . At 11:25 a.m. , the deslaminator stop untimely , then the operator low and lock the machine to verify the failure , detect lock of the sheet between the basket and the manipulator . The operator try to arrange the sheet manually and when pull the sheet , this one cut the palm of the right hand with the edge of the sheet , be refer to the medical center for attention . In circumstance where the worker hit the support of the drill beam advance cylinder to align the base of the beam with the hole of the beam and place the bolt , mechanical hammer slip and by inertia the mechanic 's hand hit the edge of the beam cause the injury . At the time of the accident the employee have all the PPE for this activity . At level 2995 access # 7 , Scissor # 187 perform the sustain activity , drilling the drill to install the Split when lift the electrowelded mesh of 12 square meter ( 6m x 2m ) , weight 21 kg . Approximately to the team 's platform , the assistant slip and feel a pain in the inner edge of the right knee . At level 3450 , Tajo area 2 ; after complete the drilling of drill for load ; the operator remove the bit from the jumbo arm and walk towards the crew cabin ; from the crown of the work a fragment of rock that pa through the cocada of the mesh of 3 `` and impact on it helmet and rebound hit the right shoulder of the operator , generate the described injury . When manipulate material on the master drill truck , the operator decide to make space by move a radiator , at that moment the driver of the truck be imprison the little finger of the left hand against the bar . Employee be transit the GRS area when he come to slip , suffer a twist in his left knee . Being 00:10 be at time when the collaborator be passing a tubo `` PVC pipe to the loader to uncover the fifth hole that be obstruct by a piece of rock . The operator of the Jetanol accidentally activates the air valve , cause the load pipe that be in the floor to rise suddenly throw prils of anfo ( excess in pipe ) on the cheekbone and eyelid of the right eye of the victim . In circumstance that the tipper MV-01 of the EE Mceisa , move of the Nv . 3120 to Nv . 3300 , the operator see a congestion of equipment in front of his unit in the Ramp 990 - at a distance of 80 meter . of access to the Nv . 3300 , which be why he decides to get off the cab by turn off his vehicle , when suddenly he slide off the second rung that be 0.70 m from the ground , hit the right forearm region against the fender and the same rung . At the moment of enter through the mouth of Tunel 3600 , the employee move on the left side of the locomotive LT-18 ( locomotive of personnel transfer that be station at the entrance of the mouth ) without notice the protrude abutment of say locomotive at the bottom hit his right knee with the metal stirrup . It should be note that the operator continued his duty during the watch without reporting what happen . At 2:30 a.m . The extraction supervisor , upon notice the discomfort of his partner in the knee , immediately evacuate him to Natclar after reporting to the control center . During the assembly activity of polypropylene pipe with 4 `` diameter , the employee step on the pipe flange , it twist his right foot . Employee be perform drilling activity with the LM17 probe at level 585 GPS and when position the needle stem come to hit the left hand ring finger against the retraction box cause superficial injury . The injured collaborator and one of his colleague want to move a rim of a scoop tire for which use their own strength they threw the rim to the floor to make it roll and in that instant the eyelash hit the fifth finger of the right hand against the ring produce the injury . When average 04:30 be , the operator Daniel remove cleaning accessory under the mobile channel of line 01 , for which he support his left hand on the rail that be in motion . At that moment the crush of the 2nd finger of the left hand occurs ; the injury occurs . The collaborator be refer to the Medical for care . While prepare to mount polypropylene tube , the employee pull the pickup from the truck and position it in place , press the finger between the tube and the concrete wall . the moment of extract the bolt of the CHUCK of rotation unit VSD 01 ; in the instant that be make hit with the rope of 6Lbs . the base of the support bolt , a fragment of the metal structure be project , impact the face of the mechanic Freddy the described injury . Once the painting of the pump pipe have be complete , the person involve involuntarily touch his face , with his hand ( with glove ) full of paint , and to clean himself he make use of a dry industrial cloth and begin to rub his face , for a period of time from 30 to 40 second continuously , until finally the paint on the face be clean , this friction generates the described injury . During the transport of piece of wood with the aid of a wheelbarrow , the employee felt a prick in the right leg , at that moment stop the activity , remove the legging and when shake the pant notice that it be a small scorpion . In the support process , in circumstance that the assistant performs the Last cut in the transverse length of the mesh ; The mesh generates a movement towards the operator and hit the face cause the described injury . In moment when the staff of the IMPROMEC company be head towards the 447 pique to support shotcrete cast job ; One of the electrician do not identify a lane and water in the road , so his right leg enters the gutter of 0.8 m depth cause the injury . The service of the litorina be paralyze for the entrance of this personnel . Being 5:40 pm approx . when the collaborator Mr. Duval ( sampler ) , be prepare to change and remove the bucket from the pulp sample of the plant courier , he slip and fell to the ground support himself with the right hand generate the lesion described . Employee be perform maintenance on filter press , in the Filtration area ( GRS ) . When he dismantle the hose clamp in a turn motion , he have contact with the burr of the tip of one of the screw that be expose , cause him a cut in his glove and wound in the 3rd quirodactilo of the left hand . Employee report that he be supervise an activity in the Ustulation , near the Ball when a projection of hot humped dust from the upper floor reach his cervical ( `` neck `` region ) , cause a first degree burn . Employee move toward the structure of post 10 , when it come to step in false , suffer twist in the left ankle . In moment that Mr. William carry out the inspection of the cut of the Block 781 Level 1850 OB6A , so that the load platform could be realize , in instant that observe the drill positive radial one that be cover and shotcreteados , he hears a noise from the upper part of the pit ( detachment of bank at the center of the pit ) , to which Mr. William go back to leave work , but his metatarsal boot make contact with a rock that be on the floor which cause it to lose balance and stumble on the gable . The employee use a lever to remove the seal ring from the front tire of the wheel loader ( LHD 05 ) when the lever come to release from the fulcrum in the ring and press the left ring finger against the loader shell cause traumatism at the tip of the say finger . The maid be handle a pipette for sample preparation for chemical analysis , while try to place it on the three-way pear , the pipette come to break cause a superficial cut in her right hand . Mr. Emerson be move tray ; when climb the staircase that give access to the former din room and find himself on the last step , he slip and fall to the floor ; support the body forward , suffer blow to the right knee with the floor , a well a in the nose with the metal tray it be carry , cause a cut in the nose and ematoma in the knee . The injured and his collaborator at the time of make the 4 `` HDPE pipe , which be to be use for hydraulic fill , be release , cause one of the end of the pipe to impact on the lip , cause an injury . Apparently the support 1 deconcentrates and release a little the pipe , this action generates that the pipe present with the rubber of the victaúlica copla , be release generate the impact previously described . The pipe be empty without hydraulic load . After maintenance on Boltec 03 at level 285 GTS of Rampa XXX , the mechanic and operator of the equipment perform test on the equipment magazine . When the magazine carousel be turn on , the operator have his left middle finger press against the equipment frame . Being approximately 5:00 a.m. approximately , when lift the Kelly HQ towards the pulley of the frame to align it , the assistant Marco that be in the later one be struck the hand against the frame generate the injury .</t>
+          <t>substation milpo locate level collaborator excavation work pick hand tool hit rock flat beak bounce hit steel tip safety shoe metatarsal area ​​the left foot collaborator cause injury unload operation ustulado need unclog discharge mouth silo truck perform procedure maneuver unhook hose total depressurisation mouth project ustulado powder collaborator cause irritation eye collaborator report street hold left hand volumetric balloon slip place hand ground volumetric balloon end break cause small wound leave hand approximately pm mechanic technician tecnomin verify transmission belt hm pump acid plant proceed turn pulley manually unexpectedly instant electrician supervisor grab transmission belt verify tension point finger trap instal segment polyurethane pulley protective lyner 60x4x5 cm weigh head pulley ore winch pulley rotate compress lyner inside channel fall housing rub right worker hip generating injury describe accumulation conveyor trailer filter 08fi0502 employee perform clean shutter air lance surprise fall product door pass neck collar aramid jacket cause burn neck shoulder worker make disconnection power cable gate intersection street cajamarquilla order remove it circumstance mr worker company its remove rope tie body gate yield fall pull warn post hit helmet mr stand side end rock break intersection ramp opening access ventilation chimney master loader identify rock mesh proceed unload they end decide verify remain position line fire time fragment rock fall 5x4x3 cm cocada mesh impact lens helmet cause injury griff wrench unscrew rod probe key come press employee finger probe replace telescopic expansion joint hdpe pipe storm drainage pumping system report piece involuntarily move positioned holder press finger holder cause wound right chemo perform cut mesh protrude gable work assistant loader position 40mt floor portable ladder hold base master loader time loader assistant lose balance fall hold mesh hand hang 80mt floor cause injury operator center demag iv perform maintenance transport hydraulic cylinder help operator official unbalanced come cylinder carry press finger leave thumb pillar support oven specify figure start neutral leach process employee jhonatan proceed open air valve tank airlift circumstance process solution return chimney solution come contact arm right foot time assistant carry bag cement weigh lamp loader suspend floor leave foot assistant slid hit edge baton operator clean spatula spear window boiler time force action hit window frame cause injury little finger leave hand operator epp boiler cleaning pit level radial drilling perform negative hole simba m4c ith no equipment assistant equipment operator change drill bit metal bar hammer release coupling rotation unit abruptly withdraw hand hit right hand team structure time accident team discharge waste operator proceed remove bag roll circumstance end move direction face driver project liquid contain impacting ear face circumstance operator go level level notice hydraulic pump inspection cover x32 approx fall stop equipment activate cat climb upper equipment moment accommodate cover slide middle finger cause injury placement support mesh cloth work moment ground injure collaborator reach electrowelded mesh operator scissor bolter position basket press mesh protruding end mesh cross leather glove cause injury right hand having carry mechanized support scissor heavy equipment operator pick water supply hose drum equipment and head cabin scissor way piece rock high approx displace slide right foot cause injury describe approximately supervise line clamp pom d071 return thickener d1304 hit nose metal chute operation employee perform truck unload operation iron bundle press right finger injure left arm loading blow hole previous blast use telescopic ladder master loader pull ladder detach upper support point mt height fragment rock 3 cm 3 cm cm project right end ladder hit master loader cheekbone upper lip produce lesion describe master shipper safety glass parking equipment maintenance workshop mechanic ask operator equipment washing operator start reverse gear cab door fully open reach washing area meter behind brake cabin door close untimely hit face cause minor injury area mechanic floor level safe place worker carry disassembly scaffold body pulpomatic thickener d2251 dismantle base scaffold locate approximately meter high floor sump rivet anchor support platform break cause fall worker impact right knee support anchor horizontal scaffold structure employee report handle air conditioning press 2nd right chirodactilo cause contusion clean vertical pipe hydrojet equipment high pressure hose hose return obstruction pipe residue reach operator actuate equipment pedal be approximately luna master loader company incimet carry loading activity cruiser level moment tie pentacord crown trying reach fanel leave side lose balance movement ladder fall floor result accident moment workermechanic workshop maintenance wire mining lamp hooked drill hole kg work table workshop fell m impact leave foot cause minor bruise time accident collaborator safety boot steel toecap move roll electrowelde mesh weight place hopper truck operator pull roll mesh bring hopper truck time imprisonment leave hand operator mesh body hopper generate describe injury time accident operator wear pvctype safety glove pm approximately ob5 mr service instant pick cat position truck crane plate acl raise right hand low cat indexed index finger leave hand body cylinder valve cat valve turntable upper part discharge sodium hydroxide disconnect employee place demineralization suction pump turn off receive projection pump sensor cause 1st degree burn be approximately nv cx mr scoop observe polyethylene pipe throw road proceed low equipment find lift pipe hook right gable piece rock suspend lectrowelde mesh impacting operator right eyebrow cause injury conduct inspection evaluate activity carry pump house ustulation steam station hit sulfuric acid spill line locate pump house thermal recovery boiler conduct inspection evaluate activity carry pump house ustulation steam station strike sulfuric acid spill line locate house thermal recovery boiler pump employee sand piece electrolysis end operation protective cap disk spin leave hand weld workshop level ex tunnel quinoa moment assistant raise wooden strut long diameter weight place work table height tread wooden strut place floor lose balance fall level lie laterally concrete wall cause bruise leave shoulder employee perform carbon steel pipe mark activity helmet strike tube cause scalp wound impact helmet sheepskin maintenance p205b pump projection silicate pulp reach right leg employee be approximately workshop mechanical maintenance surface mr boltec assistant mr cut link shorten distance chain hold injection hose resin instant see blade leave cut position affect second finger leave hand cause injury test soft starter engine belt collaborator igor move site approximately fall trench electric cable 90 m deep find partially discover clerk peel pull sheet come strike 5th chirodactile leave hand tear pvc sleeve cause cut process washing material becker tip material break cause cut 5th finger right hand level ore haul activity locomotive op2 bine times convoy travel hopper op1 assistant motorist ride saddle hold pole strike weakly split set suspend hdp pipeline gable work meter floor time accident assistant wear safety equipment wear seatbelt time accident set accompany movement path convoy time worker technician mr boltec cia want pass hand stacker sardinel technician pull hydraulic arm mr push nail equipment reach trench rim tie team turn forward fall technician phase iii concentrator plant maintenance personnel carry removal transmission belt flotation cell cleaning moment mechanic remove belt lean leave leg slide grating floor leave foot pipe generating lesion describe work carry floor level time accident staff safety equipment employee report work brushcutter near stone blade equipment collide piece metal project leg cause injury leave leg mechanical technician proceed perform maintenance motor support tipper decide bring wooden block move temporary storage material locate tipper circumstance seek cue camera tire burst suddenly it right involved thunderous sound affect right ear worker tire explode psi pressure approximately time event stack pneumatic second exploded present cut place energy release tire upper project tire leave previous guard night shift storage area roof place event affect mechanic locate at 2 m distance 70 m worker area truck park suffer damage glass level access siemag camera roof times piquero civil operator look stilson key inside metal tool box open metal lid 1 m 6 m 7 m weight hand push lid backwards position right hand near base lid cause incentration fifth finger lid structure box height hinge time accident employee wear pad glove reduce consequence injury change rim position jumbo moment mechanical technician support electrician disengage bolt loosen fourth nut help lever metal tube diameter 8 m length weight kg bounce effect return initial position hit palm leave hand electrician technician cause injury employee time accident ppe include leather glove hour collaborator welder try inspect cracking point inlet g2143 laminator slips fall level hit face hand immediately transfer medical service evaluation employee report drain ammonia refrigerant container water splash solution drain face open access ladder people carry employee right hand press support bracket same suffering superficial injury employee partner company report cut watermelon injure 2nd chirodactilo left hand knife time worker clean long hole production mesh negative remove polyethylene pipe suffer clog inside drill product compress air pressure release ejecting detritus fragment rock inside hole impact worker forehead cause cut employee mr opening visit unclog moment occur projection hot material occur accident level access a2 operator scissor perform support crown time piece rock 13cmx6cmx2 cm 54 g pass cocada support mesh height meter platform team break particle reach right eye cause injury level access operator scissor carry support right gable platform arrange place set drill squat position introduce bolt moment cocada support mesh fall crown piece rock 5cmx4cmx2 cm 112gr approximate height impact cervical region collaborator cause lesion describe time accident crown hold collaborator safety glass glove employee perform cut activity carbon steel pipe attach band see machine uneven weight distribution tube move downward end project upwards press thumb surface dining room employee unit collaborator perform chicken habilitation lunch kitchen knife come contact distal second finger leave hand cause injury describe accident employee use specific height glove type work maintenance access moment assistant place mini split set adapter clamp locked return initial position hit collaborator hand cause described injury time accident team sustain area arm jumbo height 80 m floor employee wear rubber glove employee prepare rice utensil type skimmer stir inside pressure cooker cable break reach hand cause blunt cut technician operator head zone lifting container dust zinc section use space base tranquera sardinel slip edge raspándose leave thorax treat medical center local treatment return work area be approximately maintenance workshop ee unicon circumstance mechanical technician place protective plate kg mixkret fuel tank moment attempt bolt protective plate slip hand fall directly instep leave foot cause injury describe carry supply operation zinc powder container crane it employee close low lock container make movement push lock excessive effort thumb right hand cause sprain probe bore bapdd00146 hour polling assistant perform maneuver descend rod lead rod gutter lean suitably come escape gutter return easel hand slip little finger rod easel realize shaft return release it immediately little finger partially hit rim rod easel result cut auxiliary take hospital attend to wound result point release administrative activity employee clean near area ​​the pneumatic conveyor hit drop sulfuric acid upper lip employee clean thermal recovery boiler air boom loosen pipe connection draw jet compress air right ear cause impact noise exchange shockbeare housing employee sledgehammer hit pipe stage activity hammer hit stepladder close come hand tool project left hand thumb hold piece time employee lower metal sheet 5mx18 m 80 kg floor height cm assembly assistant timely remove hand trap ring finger iron loose earth cause contusion ring finger collaborator time event use maneuver glove withdrawal metal form support screw inside bolt chain holder loosen employee helper exert force combination wrench bolt come loosen immediately press ring finger employee right hand support perform doosan rb equipment hammer repair employee try remove suspender support pound rope moment receive blow brace bolt cause splinter release expelling impacting low left limb cause metal embed it collaborator notice immediately employee report return anode easel bump easel come swing hit right shoulder cause bruise circumstance operator perform lift inch vitaulic pipe imprison structure rail truck instant push pipe right hand return initial position hit middle finger employee cause bruise level geology surface master temporarily repair water leakage inch diameter metal distributor make cut rim chamber strip 4 cm wide 100 cm long make cutter partner stretch camera cut force edge cutter make contact index finger leave hand cause superficial cut time event worker wear boss glove mechanized support activity level tajo lift support mesh platform scissor equipment employee stumble feel pain heel left foot be deslaminator stop untimely operator lower lock machine verify failure detect lock sheet basket manipulator operator try arrange sheet manually pull sheet cut palm right hand edge sheet refer medical center attention circumstance worker hit support drill beam advance cylinder align base beam hole beam place bolt mechanical hammer slip inertia mechanic hand hit edge beam cause injury time accident employee ppe activity level access scissor perform sustain activity drilling drill install lifting electrowelde mesh square meter 6 m 2 m weight kg approximately team platform assistant slip feel pain inner edge right knee level tajo area complete drilling drill loading operator remove bit jumbo arm walk crew cabin crown work fragment rock pass cocada mesh and impact helmet rebound hit right shoulder operator generate describe injury manipulate material master drill truck operator decide space move radiator moment driver truck imprison little finger leave hand bar employee transit grs area come slip suffering twist leave knee time collaborator pass tubo pvc pipe loader uncover fifth hole obstruct piece rock operator accidentally activate air valve cause loading pipe floor rise suddenly throw pril anfo excess pipe cheekbone eyelid right eye victim circumstance tipper mv move nv nv operator see congestion equipment unit ramp distance meter access nv decide cab turn vehicle suddenly slide second rung ground hit right forearm region fender rung moment enter mouth tunel employee move leave locomotive lt locomotive personnel transfer station entrance mouth noticing protrude abutment say locomotive hit right knee metal stirrup note operator continue duty watch reporting happen be extraction supervisor notice discomfort partner knee immediately evacuate natclar reporting control center assembly activity polypropylene pipe diameter employee step pipe flange twist right foot employee perform drilling activity lm17 probe level gps position needle stem come hit left hand ring finger retraction box cause superficial injury injure collaborator colleague want rim scoop tire strength throw rim floor roll instant eyelash hit fifth finger right hand ring produce injury average am operator remove clean accessory mobile channel line support leave hand rail motion moment crush 2nd finger leave hand occur injury occur collaborator refer medical care prepare mount polypropylene tubing employee pull pickup truck position place press finger tube concrete wall moment extract bolt chuck rotation unit vsd instant hit rope 6lbs base support bolt fragment metal structure project impact face mechanic describe injury paint pumping pipe complete person involve involuntarily touch face hand with glove paint clean make use dry industrial cloth begin rub face period time second continuously finally paint face clean friction generate describe injury transport piece wood aid wheelbarrow employee feel prick right leg moment stop activity remove legging shake pant notice small scorpion support process circumstance assistant perform cut transverse length mesh mesh generate movement operator hit face cause described injury moment staff impromec company head pique support shotcrete casting job electrician identify lane water road right leg enter gutter depth cause injury service litorina paralyze entrance personnel approx collaborator mr sampler prepare change remove bucket pulp sample plant courier slip fall ground support right hand generating lesion describe employee perform maintenance filter press filtration area grs dismantle clamp turn motion contact burr tip screw expose cause cut glove wound 3rd quirodactilo left hand employee report supervise activity ustulation near ball projection hot humped dust upper floor reach cervical neck region cause degree burn employee move structure post come step false suffering twisting leave ankle moment mr carry inspection cut block level ob6a loading platform realize instant observe drill positive radial one cover shotcreteado hear noise upper pit detachment bank center pit mr go leave work metatarsal boot make contact rock floor cause lose balance stumble gable employee lever remove seal ring tire wheel loader lhd lever come release fulcrum ring press leave ring finger loader shell cause traumatism tip say finger maid handle pipette sample preparation chemical analysis try place threeway pear pipette come break cause superficial cut right hand mr move tray climb staircase give access dining room find step slip fall floor support body forward suffering blow right knee floor nose metal tray carry cause cut nose ematoma knee injure collaborator time make hdpe pipe hydraulic fill release cause end pipe impact lip cause injury apparently support deconcentrate release little pipe action generate pipe present rubber victaúlica copla release generating impact previously describe pipe hydraulic load maintenance boltec level gts rampa xxx mechanic operator equipment perform test equipment magazine magazine carousel turn on operator leave middle finger press equipment frame approximately be approximately lift pulley frame align it assistant later strike hand frame generating injury</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While remove the drill rod of the Jumbo 08 for maintenance , the supervisor proceeds to loosen the support of the intermediate centralizer to facilitate the removal , see this the mechanic support one end on the drill of the equipment to pull with both hand the bar and accelerate the removal from this , at this moment the bar slide from it point of support and tightens the finger of the mechanic between the drilling bar and the beam of the jumbo . During the activation of a sodium sulphide pump , the pip be uncoupled and the sulfide solution be design in the area to reach the maid . Immediately she make use of the emergency shower and be direct to the ambulatory doctor and later to the hospital . Note : of sulphide solution = 48 gram / liter . Approximately at 11:45 a.m. in circumstance that the mechanic Anthony ( group leader ) , Eduardo and Eric Fernández-injured-the three of the Company IMPROMEC , perform the removal of the pulley of the motor of the pump 3015 in the ZAF of Marcy . 27 cm / Length : 33 cm / Weight : 70 kg ) , a it be lock proceed to heating the pulley to loosen it , it come out and fall from a distance of 1.06 meter high and hit the instep of the right foot of the worker , cause the injury described . Employee be sit in the rest area at level 326 ( raise bore ) , when he suffer sudden illness , fall and suffer excoriation on the face . While prepare the rice for the lunch of the day , when move the pot # 60 - 35 Kg of weight include the content - to evacuate the residual water of the cooking of the rice , when position the pot on a jaba it tilt backwards spill some 200 ml of hot water on the cook 's leg . The cook immediately after the event applies first aid , pour cold water on the area of ​​the injury and go to the medical post for evaluation . The employee be work in the When a thermal shock cause a splash of zinc in his direction , the employee , despite use all the indicate PPE , be hit by small spatter that pa between the facila and the hood . small burn in the face region . At Rp 050 of level 1620 , in circumstance where the worker of the company be perform the task of diamond drilling , the assistant Jhonatan ( injured ) and Nilton be prepare to increase the HQ perforation pipe locate on the scaffold , Mr. Jhonatan lift one end of the tube and support it on the pulley of the equipment frame , the other end be on the work scaffold , at the moment that Mr. Nilton lift the end of the HQ pipe that be in the scaffold to position in the frame , the upper part of the pipe come out of the pulley fall and strike the right hand of the worker jhonatan against bolt that have the lateral part of the same frame cause the injury described . In the Raise chamber , when the operator and assistant remove the drilling bar from the 71R drilling machine - weight approx . 500 Kg - hold it at the top with a 2 TM stroke and assist with jib to move horizontally , the operator 's jib on the bottom slide by move the top of the drill bar cause the assistant 's bar to enforce his assistant 's hand between the bar and the piston of the equipment . While align the right bracket of tower N ° 32 , when release the tension apply by the tirford of 1.5 Tn , when push the lever towards the tension release point , it return by mechanical effect overcome the resistance of the lineman operator and reshape the the hand of the assistant beating the assistant in the frontal region . The worker carry out his work at level 2940 , stop 896 ; and place metal mesh on the basket ( SOIL HALF ) of the Scissor the mesh fall and hit the back of his right hand . The worker Yaranga while work with barretilla in Stop 996 , Level 3300 . While unload metal mesh , on the basket of an ampoloader with his operator Juan barretilla be embed on safety boot , react immediately the worker remove the limb with force and manage to release the foot , but produce a wound on the right foot . During the withdrawal the Kelly bar ( conductive bar of 45 Kg , 1.5 m of length and 10 cm of diameter ) of the equipment of perforation on the part of two worker , one of them be position in the low part to tie the bar and the injured one be position in the upper part to hold the bar , when position the bar on the platform they lose control of the bar move 5 cm with the 2nd finger of the right hand against the pulley of the frame . At the time of the accident , the worker be wear safety glove and the drill rig be block . During the pre-use inspection of the Jumbo 15 ( check list ) equipment , the operator of the equipment find behind the seat a plastic bottle fill with a liquid apparently mineral water , without any label or label . Take the bottle and take a small sip of the liquid , expel it immediately when notice that it be not water , immediately proceeds to wash with enough water and be transfer to the medical center for your attention . The liquid with which it have contact be an esengrasante product of equipment and machinery of low toxicity . During maintenance of the Flyght pump rotor , the oil pressure of the the lubrication chamber cause the chamber cover to be project towards the employee 's face , strike him superficially on the forehead , cause injury . Approx . at 11:22 be there be a leakage of sulfur dioxide ( SO2 ) from section 20/30 due to water seal blowing due to overpressure of the acid plant , at that moment there be 13 collaborator of CORMEI company , EISSA and COSAPI do work near the impact area ; who be evacuate to the medical center for their care , then return to their usual work . The locomotive No . 15 operate by MAPERU personnel , be direct with 10 wagon load with ore from the OP4 to the waste bin . Next to the waste bin , the patrol car ( which go on the back of the wagon ) the moment it pa over a change of track , the left rear wheel of the patrol car leaf the rail advance the locomotive leave the patrol car tilt more ahead . The assistant motorist who travel alone in the patrol car remain inside the structure and suffer minor bruise . At a time when a worker and another partner be prepare to move an oil cylinder ( 55 gallon ) on a mobile platform mount on rail ( platform weigh approximately 200 kg ) it be derail ( leaf the rail ) . In order to place the platform on the rail , both worker lift the platform and in those instant the right hand of one of them be trap between the rail and the platform structure where it be held ( metallic tube protrude from the platform ) . This accident cause a bruise wound on the index finger of the right hand , there be no fracture . At the time of the accident they both wore leather-type safety glove . The operator be feed a bag of big bag contain scrap of Zn sheet . During lift , this load bag be release from the hook of the hoist , make abrupt contact with the liquid zinc of the furnace , generate an explosion and cause the operator to be hit with liquid zinc . The mechanic assistant after throw the wooden block of support of the stabilizer of the Hiab crane truck to the ground , when descend from the truck by the access ladder when arrive at the last step jump towards the ground - height of 69cm - tread the edge of one of The wooden block cause an injury to the left ankle . By manually move a steel cabinet for disposal with the help of another employee , the operator have his finger press down between the wall and the cabinet cause injury . Approximately at 11:50 a.m. in circumstance that the Messrs. of the truck crane ) and William de la Cruz culminate the shipment of 03 block of metal plate with an approximate weight of 1800 Kg . Mr. William de the Cross ( rigger ) climb onto the truck to remove the sling , place both foot under the stretcher that support the metal plate . At that moment the central part of the stretcher be broken , a a result of which the two foot be imprison produce the injury . The employee checked for acid leakage in the shipping area when he be hit by splash of solution in his right hemiface . The employee be clearing the liquid zinc pump from oven 04 , when he step on the platform and become unbalanced with a twist in his left foot . The employee be transit toward the cadmium factory , near tank 1440 on copper sulphate , when acid solution spill in his direction , reach his leg cause minor burn . During the refurbishment work of the HDPE pipe ( 4 `` of diameter ) with two worker , when the worker who secure the pipe with a chain , stand on the basket of the ampoloader - raise to a height of 3.0 m from the ground - , the pipe slip and impact his arm right , cause an injury to the radius of the right arm . In circumstance that a dump truck laden with ore enter to unload backwards in a curve in the upper part of via La Laquia , the operator do not notice the unevenness in the road ( approximately one meter ) approach the edge and overturn the truck on it right side . The operator travel alone in the truck and make use of the safety belt , helmet and glass at the time of the accident . During the unload process , there be two square that be 25 m from the accident site . The test of alcohotest to the operator be negative . Being approximately 5:45 pm . On the level . 1710 Cx 018 BP 745 , in circumstance that the worker of the company Rock perform the anchorage of the central pin for the anchor of the drilling machine Diamantina XRD -30 ( bob Cat ) the assistant Cristian ( injured ) make the adjustment of the nut of the central bolt with the stilson key No . 18 Simultaneously Jose from the control panel make the movement of the rotation unit for the position of the clamp pin , at that moment the frame be slid by press the thumb of the assistant 's left hand against the stilson key , cause the described injury , due to the lack of secure the frame fix bolt . When perform the sleeve removal maneuver , when the hole be 600 meter deep , General da Silva press only one side of the lock nut of the rod , which together with the jack , hold the entire weight of the rod in the maneuver . As the lock procedure be not effective , the weight of the rod be only secure by the steel wire rope of the probe winch . At the moment that driller Pedro release the brake of the winch , the inefficacy of the lock do only in one side of the chestnut and without aid of the monkey , cause the slide of the rod . Auxiliary be prepared for manual unlock of the rod , hold the faucet key firmly against the probe tower a the composition shift . As the stem slid , his hand be shift downward , cause his left hand to strike against the base of the probe tower structure , cause cut to the 4th and 5th Quirodactyl . employee be take to the hospital where he go through medical care . wound be suture with 16 stitch . same be remove for 10 day from his activity . When it open the suction valve of the 420-BO-01 acid pump , the cable of the same pump come loose by press the 5th finger of the employee 's left hand against the tube , cause a fracture in the distal phalanx . Photos During the maintenance of the locomotive N ° 16 in the workshop of level -1170 , the assistant when pull the locomotive chair backwards stumble against the ventilation grille , fall on the platform of the locomotive and then to the floor of the workshop from a height 1.17m generate the injury . At the time of the accident the assistant use his safety helmet and chin strap . Once the RB machine be lift ( weight 7 tn ) at 15 cm from the floor level , the accidently proceeds to pull the RB machine with a key of 5 ton ( maximum cap ) , to lay it on the floor , after advance 70 cm horizontally , the anchor bolt ( pig tail type , 5/8 `` diameter ) to which the key be hooked , it break transversely , and with the pull force , this key be project onto the injured person 's left shoulder cause the injury . - The injured be 1.50 meter from the key . - At the time of the incident , the assistant be 5 meter away do order and cleaning When position the scissor bolter N ° 09 in the East of stope 175 ( 40 meter from the top ) , the operator and his assistant verify that the ventilation sleeve will obstruct the support of the left gable , so they decide to section the sleeve and direct it towards the main corridor ; the injured person decides to climb to the roof of the equipment cabin ( surface : 1.5 square meter ) to carry out the reinstallation of the section sleeve and , without notice , he step on empty and fall from the equipment from a height of 2.50 meter . At the time of the accident , the operator be on the scissor bolter platform , the equipment be position and block to perform the maintenance and the assistant be wear a safety helmet and chin strap . Employee report that when attempt to manually ingot of Zinco , on the rotary table of the L1 ingot , hit with the left hand against the angle in the structure of the ingot , by press the finger between the ingot and the angle . The employee report that he place the air lance in the tank 1604 and then open the manual air valve and projection of acid solution heat toward him reach the front of the left thigh . Mr. Jesus operator of the concrete throw team ( alpha N ° 18 ) be shoot shotcrete in the Cx work . 001 Nv . 1710 OB1 . apply 0.5 m3 , he realizes that the additive do not come out in the mix , direct to lift the cover of the passage valve ( 54 Cm x 53 Cm of ¼ inch of thickness approximately 15 Kg ) . verify that the valve be open , release the lid and it hit to the third finger of the left hand against the base , cause the injury . The employee perform the return of the load at the entrance of the debark machine , while try to align a cathode be press in his right hand . In the DDH chamber of the company Explomin , locate at the level -100 Socorro ramp 334 , when the worker - assistant driller-was dismantle the fifth drill rod ( NQ - 3 meter of steel with a weight of 24 kg ) , use a stilson key ( No . 18 ) , at that moment the operator operates the rotation unit , the drill rod rotates by press the left hand of the worker against the base of the rod holder , cause an injury to the left hand . At the time of the accident , the drilling assistant use rubber glove When carry out the maneuver to increase the HQ pipe line , the driller Wilder indicates the assistant Gilton introduce the inner pipe to the drill , the assistant introduces the inner pipe and place his hand in the box of the pipe , while the driller Without notice , he move the pipe over the assistant 's hand and open the chuck of the rotation unit , drop the pipe , imprison the injured person 's right hand cause the injury . The employee report that climb the access ladder to the operating room of the Ustulation be surprised by the projection of sulfuric acid . Being 04:20 p.m. approximately , in the Nv . 1880 , CX-781 . Mr. Kevin helper of Jumbo 55 , remove the drill rod that be in the drilling hole , instant that break the chain of subjection of the table of the drilling machine , slide down achieve rub the index finger of the left hand , cause the injury . In moment that the truck of transport of personnel of the company MCEISA plate AJG-751 , move from the Nv 3300 to surface , miss 50m to reach the mouth of the Nv 3900 , the gearbox do not respond so the driver stop the truck to inspect it along with maintenance personnel who At that time I be travel in the truck . They raise the cabin to manually put the change in first and continue the trip , culminate this task the driver with the support of the maintenance personnel low the cabin which due to the weight fall hit the driver between the cabin and the hopper of the truck . At the time of the accident the employee be wear his safety helmet and chin strap . After complete the weld work on the backhoe bucket make for 4 hour , during which he use glass moon # 10 , the welder feel a slight discomfort in the eye , so he be transfer to the medical service for evaluation . During the accident the welder use facial mask for weld . At the El Porvenir sub-station at level 4240 , when assemble a metal structure ( approximately 120 kg ) with the support of a lift system , three operator try to accommodate the structure to anchor it on it base , at this moment the Metallic structure slide in the direction of the injured worker 's right hand , produce a slight right hand accretion between the head of the bolt and the base of the structure cause the injury . At the time of the accident the operator make use of their safety glove . During the transit of the fuel tanker of level 3530 at level 2925 by the north ramp ; When passing through level 3140 the operator feel that the right rear tire skid and when the operator performs a defensive maneuver the truck hit the left gable cause the injury described . At the time of the accident , the pilot and co-pilot be wear a safety belt , their safety glass and helmet . During field trip , to return to work after lunch , the employee of the Wellfield company slip on the loose stone that be in the place . At that moment , with the intention of balance , he try hold onto a tree , fall under the right arm cause fracture at the distal end of the radius . The activity be paralyze and the employee be refer to the Hospital in Paracatu where he underwent medical care . At approximately 6:20 p.m. on 08/06/16 the operator Eustaquio fall down from the metal platform that give access to tank D-1021 of the strong acid leach stage and suffers luxo-fractures in the wrist left when lean on the floor with his hand . The operator be direct to the first tank of the strong acid leach stage ( Tk D-2040 ) to verify the entry of spent to the taque . Once the moor of the faneles in the detonate cord have be complete , the injured person proceeds to tie the detonate cord in the safety guide ( slow wick ) at a distance of 2.0 meter from the top of the work . At that moment , to finish moor , a rock bank ( 30cm x 50cm x 15cm ; 67.5 Kg . ) the same front , from a height of 1.60 meter , which fall to the floor very close to the injured , disintegrates in several fragment , one of which ( 12cmx10cmx3cm , 2.0 Kg . ) slide between the fragment of rock and impact with the left leg of the victim . At the time of the accident the operator use his safety boot and be accompany by a supervisor . During the activity of construction of wall stopper with mortar block to improve ventilation in the intermediate zone ; in moment that the bricklayer assistant be prepare to complete the construction of the 3.05m high wall , part of the wall - 12 block ; 1.5 Kg per block - fall towards the scaffold , so the mason assistant jump towards an accumulation of sand locate on one side to avoid be hit by the block , during the fall the injury described occurs . At the time of the accident the mason assistant jump from a height of 1.40 m from the floor of the work and use his personal safety equipment which reduce the impact of the fall . The operator of the Scissor 187 leaf his equipment park at level -2995 Acc 7 due to electrical problem , when the maintenance personnel arrives , the electrician climb on the control platform of the equipment and performs the verification of the hydraulic system confirm the problem ; then in coordination with the mechanic decide to perform the test with the diesel system , moment in which accidentally activates with the body the arm movement lever cause the drill arm to move downwards generate the left hand 's atricion against the support of the pivot tube generate the lesion described . At the time of the accident the electrician be alone on the control platform , while the mechanic be at ground level observe the pressure on the diesel system pressure gauge . In circumstance in which the operator of the scooptram proceed to sit on his equipment , when closing the door he take his right hand off the handrail and place it close to the door hinge , which when closing trap part of the worker 's middle finger . The worker at the time of the accident make use of leather safety glove . In plant while do work on GEHO pump reducer N ° 1 , when accompany the rotation of the shaft of the reducer with a mixed key of 7/16 `` , the wrench crown hit against the housing of the GEHO pump attribute the Union area of ​​the fifth and fourth finger of the welder 's right hand cause the injury . At the time of the accident the equipment be block and the employee use his leather glove . At 11:00 a.m. , Mr. Frank with the support of another mechanic , be prepare to place on the floor a metal part call the rear bridge of the forklift . At that moment the part move part move generate a blow to the middle finger of the left hand At moment when the MAPERU truck of plate F1T 878 , return from the city of Pasco to the Unit transport a consultant , be 350 meter from the main gate his lane be invade by a civilian vehicle , make the driver turn sharply to the side right where be staff of the company IMPROMEC do hot melt work in an 8 `` pipe impact two collaborator cause the injury described At the time of the accident the truck be travel at 37km / h - accord to INTHINC - , the width of the road be of 6 meter , the activity have safety cone a a warn on both side of the road and employee use their respective EPP 'S . Being 10:25 h approx . hour the operator Fernando during the opening of wagon , find a harden stake and u a bar of approx . 1.5m to remove it . At that moment he press the bar and hit his hand . During execution of drilling on the target - Bolt BRJCLDD0006 , make by the company SERVITECFORACO - probe 25 , at 09:45 on July 9 , 2016 , the official Josimar da Silva , in the moment of the maneuver to fish material , when remove the feeder of water , during movement of the winch realize that the safety chain be loose and could curl in the rod . In perform the chain removal movement , he place his left hand between the hose and the cap of the hydraulic plate . With the unlock of the inner tube there be an abrupt movement of the chain , push his hand towards the hydraulic plate , cause an injury to the ring finger of this hand . The lesion cause a cut in the 4th Quirodactyl , with a need for suture of 3 point to close the cut . The operator of the paste fill plant 01 remove a floor grate ( 60 x 90 cm ) , to clean the low floor . It be remove to close the water valve and do not block the vacuum , the two technician who be enter the filter belt notice an overflow and ask the operator to reduce the load . The mechanic kept walk without notice the floor and one of them fall into the void impact his foot left at an angle that be about 25 cm below the floor grate , produce the injury . The accident occur at the time an employee of the partner company SF carry out unload operation of bladder bag . By cut the bag for charge of the boom into the silo truck 's delivery mouth , the inner plastic bag surround the content abruptly drop and a large amount of material fell onto the cone ( funnel ) . The cone fell over and the injured man stood with his leg press between him and the body guard of the scaffold . There be external medical attention and it be verify that there be no fracture At level 3490 gallery 239 , during the hold activity with the Bolter equipment No . 24 , the operator performs the drilling of the first hole to support the right gable ; When the 7-foot-deep drill be about to end , the drill rod break , leave the thread inside the drilling machine 's shank ; the operator and his assistant decide to make two empty percussion attempt to free the thread of the shank without success ; in the third attempt the assistant enters a 3/8 `` corrugate iron to the central hole of the rest of the bar embed in the shank to generate pressure , it be at this moment the operator activates the percussion and generates a movement of the shank which hit the palm of the victim 's left hand generate a described injury . The worker be wear safety glove at the time of the accident . The end of the corrugate iron in contact with the left hand be shape like a cane . The worker at the time of the accident be position under a roof support with mesh and split set . At time when the mill operator proceed to remove the vitaulic flange connect the suction pipe to the pump housing 8B ; with the intention of de-sanding the system , when remove the flange , the mineral pulp come out under pressure and impact on the face and wrist of his left hand generate the lesion described . At the time of the accident , both the secondary mill No . 4 and the pump 8A and 8B be block for maintenance work and the mill operator use his safety glass . At level 3390 access 2 area 2 ; the operator of the Scissor team No . 200 be prepare to present the second mesh to continue with the support of the work ; When the operator pull the support mesh to share it length equally on both side of the equipment , it be at this moment that from the roof of the work a rock weighs approximately 400 Kg , which fall on the support mesh and slide towards the right side spoiler , a a result of this the mesh push the operator who be kneel on the floor of the platform , which generates the lesion described . The rock fall do not directly impact the operator who be in a squat position . The operator move away from the area walk by his own mean and be support by the assistant . During the withdrawal of the fix jaw wedge from the crusher 41BR01 , the hoist device ( hook ) be broken cause the steel cable of the overhead crane to strike the left hand of the employee . On leave the Company the employee stumble onto the exit ladder of the building and fell 3 step , cause twist of the ankle and grate on the cinnamon During ore transport work from OP2 to bine ; after have fill the tenth mining car with ore , the assistant position on the platform of the hopper OP2 place a wooden board between the piston of the chain to avoid the fall of fine into the track , at which time a fragment of rock ( 10cmx8cm x6 cm ; 1.4 Kg ) roll by the load and hit the distal phalanx of the fourth finger of the left hand . The assistant at the time of the accident be wear safety glove ( pad type ) . The hopper OP2 at the time of the accident be with zero energy . In circumstance , the drilling assistant proceed to assemble the inner tube to the barel ; the injured person retracts the inner tube ( head ) to throw it manually towards the top of the catheter ( inclination - 3 ° ) to continue with the perforation , in that moment the glove of the left hand be hooked in the speart point push his left hand until the edge of the box of the barel , originate the injury . At the time of the accident the injured employee use his rubber glove and the work area be well lit . While maintain the ramp 604 , when place the first cloth for the overlap with the previous mesh ; the operator will check the work front , then return to the back of the team to coordinate with his assistant , at which time a fragment of rock ( Weight : 0.42 kg ) of the non-sustained area will be detach , which impact on the arm of the team and reach by bounce the collaborator cause the injury . The one involve make use of all their EPPs . At the time of the incident the assistant be in the back of the team prepare the support mesh . At time when the collaborator be perform the evacuation of inchancables from the mine , present in Strip ° 1 , of Phase he notice a piece of support mesh position between the frame and the return belt ; After several attempt to remove this mesh , with the belt in movement and use a metal rake a support , the mesh yield move in the direction of rotation of the return belt , hit the collaborator 's hand against the metal structure , cause contusion in the left hand . At the time of the accident the employee use his leather glove . The clerk be cut the excess fiberglass in a passing box and have contact with the blade of the marble saw , which cut the glove and cause a wound in his right hand . During the maintenance work of the vertical pump ( 8 `` ) of zinc concentrate , the three mechanic be perform lift maneuver to be able to position the pump to the drawer , instant in which the pump becomes clog by the reduce space of the work area and in order to release the pump they place a young lady in the low part , at which time she be release and turn untimely , hit the middle finger of the injured person 's right hand against a 12 `` trellex hose . In section 75 in row 12 Cell 36 , the worker performs anode lift to correct short circuit , use the auxiliary hoist and nylon sling , at which time the sling be release from the anode and hit the back of the right hand cause it the injury . Worker be see in the Medical and transfer to a clinic for external evaluation . When try to release the pipe ( HDP pipe , 50m long and 2 `` diameter ) stuck in the support mesh , the master loader and his assistant pull the pipe to release it , when the pipe be release hit the lateral part of the cheekbone and the eyelid worker 's right generate the described injury . In the city of Conchucos , of Ancash , participate in a patronal feast , represent the company , be mount on a horse a part of the ceremony throw fruit and toy to the people attend this public event , the noise of the material pyrotechnic and people try to collect the gift cause the horse in front and very close to her horse to be frighten and kick back hit the low limb . Employee report that he be monitoring the existence of a borehole of a tube in the thermal recovery boiler of the Ustulation area , through the side window , when he be struck by projection of heat air that reach his face and right forearm . In circumstance in which the operator of bolter N ° 8 go down the ladder to the height of the rest platform - at 0.80 m. floor level - slip off balance by hit your back against the handrail of the operator 's door . At the time of the event the injured person use all his EPP 's . At the intersection of level 3970 - main road and access to the south ramp , the collaborator , after have freed the tube 2 inch in diameter from the gable , descend hold the pipe on the fourth step of a telescopic aluminum ladder ( approximately at 1.20 meter from the floor ) at which point another clamp point in the gable be lift by lift the tube which pull the worker cause him to lose balance and fall from a height of 1.20 meter . The described injury occur . In the area of ​​equipment inspection , while the staff of the Atenuz EE , try to remove the hydraulic hammer safety lock of the excavator , the mechanical lubricator hold with his right hand a hat-type chisel while the equipment mechanic hit the chisel with a 2-pound rubber bump to remove the safety , at which point one of the blow fall on the edge of the hat-type protector , cause it to slip and strike the fourth finger of the lubricant mechanic 's right hand generate the described injury . At the time of the accident , the lubricator mechanic have put on the glove type pad . Being approx . 23:45 hr . Mr. Eliseo secondary crush operator , when retire to his snack , find the gate of the chute of strip 6 open , and when approach to close the gate , in that At that moment , the operator Mr. Samuel who be on the upper platform , coordinate with the operator of the control room the start of strip 6-1 , at that moment the start-up product project a particle ( 10x6x5cm ) impact on the flange of the gate and project to towards the height of the lens and respirator of Mr. Eliseo . In phase I , the operator carry out the removal of inchancanbles of the reciprocate feeder , while remove a split set with the support of a rope , the staff support the left hand on the structure of the protection against fall , it be at this moment that another split set come out together with the load and hit on the distal phalanx of the fifth finger of the left hand , generate the described injury . In circumstance that the assistant of mine be arrange to advance the hose of flexible nylon of 1 `` of diameter , to proceed with the water of shot fire , position itself under a zone with the support deteriorate by the last blasting , moment in which it give off a block of rock ( 25cmx10cmx5cm ; 3.5 Kg ) of the roof of the work of a height of 5.2 meter which when fall hit by rebound in the left leg of the collaborator cause the described injury . Inside mine during the diamond drilling of a positive 15 ° drill , in moment when the control tube be rescue with the fisherman , the winch cable break untimely develop a whiplash effect and impact on the left hand of the drilling assistant cause the described injury . At the time of the accident the drilling assistant be on the platform at 1.0m from the frame and be use his Hycron-type safety glove . In the activity of load of explosive in front of level 3</t>
+          <t>remove drill rod jumbo maintenance supervisor proceed loosen support intermediate centralizer facilitate removal see mechanic support end drill equipment pull hand bar accelerate removal this moment bar slide point support tighten finger mechanic drilling bar beam jumbo activation sodium sulphide pump pipe uncoupled sulfide solution design area reach maid immediately use emergency shower direct ambulatory doctor later hospital note sulphide solution gram liter approximately be circumstance mechanic group leader the company impromec perform removal pulley motor pump zaf marcy length weight kg lock proceed heating pulley loosen it come falls distance meter high hit instep right foot worker cause injury describe employee sit rest area level raise bore suffer sudden illness fall suffering excoriation face prepare rice lunch day move pot weight include content evacuate residual water cooking rice positioning pot jaba tilt backwards spill hot water cook leg cook immediately event apply aid pour cold water area ​​the injury medical post evaluation employee work thermal shock cause splash zinc direction employee despite indicate ppe hit small spatter pass facila hood small burn face region level circumstance worker company perform task diamond drilling assistant injure prepare increase perforation pipe locate scaffold mr lift end tube support pulley equipment frame end work scaffold moment mr lift end pipe scaffold position frame upper pipe come pulley fall strike right hand worker jhonatan bolt lateral frame cause injury describe chamber operator assistant remove drilling bar 71r drilling machine weight approx hold stroke assist jibs horizontally operator jib slide move drill bar cause assistant bar enforce assistant hand bar piston equipment align right bracket tower release tension apply tirford tn push lever tension release point return mechanical effect overcome resistance lineman operator reshape hand assistant beat assistant frontal region worker carry work level stop place metal mesh basket soil half scissor mesh fall hit right hand worker work barretilla stop level unloading metal mesh basket ampoloader operator barretilla embed safety boot react immediately worker remove limb force manage release foot produce wound right foot withdrawal kelly bar conductive bar kg length diameter equipment perforation worker position low tie bar injure position upper hold bar position bar platform lose control bar move 2nd finger right hand pulley frame time accident worker wear safety glove drill rig block preuse inspection jumbo check list equipment operator equipment find seat plastic bottle fill liquid apparently mineral water label labeling bottle small sip liquid expel immediately notice water immediately proceed wash water transfer medical center attention liquid contact esengrasante product equipment machinery low toxicity maintenance flyght pump rotor oil pressure lubrication chamber cause chamber cover project employee face strike superficially forehead cause injury approx leakage sulfur dioxide so2 section water seal blow overpressure acid plant moment collaborator cormei company eissa cosapi work near impact area evacuate medical center care return usual work locomotive no operate maperu personnel direct wagon load ore op4 waste waste patrol car which go wagon moment pass change track leave rear wheel patrol car leave rail advance locomotive leave patrol car tilt ahead assistant motorist travel patrol car remain inside structure suffer minor bruise time worker partner prepare oil cylinder gallon mobile platform mount rail platform weigh approximately kg derail leave rail order place platform rail worker lift platform instant right hand trap rail platform structure hold metallic tube protrude platform accident cause bruise wound index finger right hand fracture time accident wear leathertype safety glove operator feed bag big bag contain scrap sheet lift loaded bag release hook hoist make abrupt contact liquid zinc furnace generate explosion cause operator hit liquid zinc mechanic assistant throw wooden block support stabilizer hiab crane truck ground descend truck access ladder arrive step jump ground height 69 cm tread edge wooden block cause injury leave ankle manually move steel cabinet disposal help employee operator finger press wall cabinet cause injury approximately be circumstance messrs truck crane culminate shipment block metal plate approximate weight mr cross rigger climb truck remove sling place foot stretcher support metal plate moment central stretcher break result foot imprison produce injury employee check acid leakage shipping area hit splash solution right hemiface employee clear liquid zinc pump oven step platform unbalanced twist leave foot employee transit cadmium factory near tank copper sulphate acid solution spill direction reach leg cause minor burn refurbishment work hdpe pipe of diameter worker worker secure pipe chain stand basket ampoloader raise height ground pipe slip impact arm right cause injury radius right arm circumstance dump truck laden ore enter unload backwards curve upper operator notice unevenness road approximately meter approach edge overturn truck right side operator travel truck use safety belt helmet glass time accident unloading process square accident site test alcohot operator negative approximately pm level circumstance worker company rock perform anchorage central pin anchor drill machine diamantina xrd bob cat assistant cristian injure adjustment nut central bolt stilson key no control panel movement rotation unit position clamp pin moment frame slid press thumb assistant leave hand stilson key cause describe injury lack secure frame fix bolt perform sleeve removal maneuver hole meter deep general press lock nut rod jack hold entire weight rod maneuver lock procedure effective weight rod secure steel wire rope probe winch moment driller release brake winch inefficacy lock chestnut aid monkey cause slide rod auxiliary prepared manual unlock rod hold faucet key firmly probe tower composition shift stem slide hand shift downward cause left hand strike base probe tower structure cause cut 4th 5th quirodactyl employee take hospital go medical care wound suture stitch remove day activity open suction valve bo acid pump cable pump come loose press 5th finger employee leave hand tubing cause fracture distal phalanx photo maintenance locomotive workshop level assistant pull locomotive chair backwards stumble ventilation grille fall platform locomotive floor workshop height 17 m generate injury time accident assistant safety helmet chin strap machine lift weight tn floor level accidently proceed pull machine key ton maximum cap lie floor advance horizontally anchor bolt pig tail type diameter key hooked break transversely pull force key project injure person leave shoulder cause injury injure meter key time incident assistant meter away order clean position scissor bolter east stope meter top operator assistant verify ventilation sleeve obstruct support leave gable decide section sleeve direct main corridor injure person decide climb roof equipment cabin surface square meter carry reinstallation sectioned sleeve and noticing step fall equipment height meter time accident operator scissor bolter platform equipment position block perform maintenance assistant wear safety helmet chin strap employee report attempting manually ingot rotary table ingot hit leave hand angle structure ingot press finger ingot angle employee report place air lance tank open manual air valve projection acid solution heat reach left thigh mr operator concrete throwing team alpha shoot shotcrete work nv ob1 apply m3 realize additive come mix direct lift cover passage valve inch thickness approximately kg verify valve open release lid hit finger leave hand base cause injury employee perform return load entrance debark machine try align cathode press right hand ddh chamber company explomin locate level socorro ramp worker assistant drillerwas dismantle fifth drill nq meter steel weight kg stilson key no moment operator operate rotation unit drill rotate press left hand worker base holder cause injury leave hand time accident drill assistant rubber glove carry maneuver increase pipe line driller indicate assistant gilton introduce inner pipe drill assistant introduce inner pipe place hand box pipe driller noticing move pipe assistant hand open chuck rotation unit drop pipe imprison injure person right hand cause injury employee report climb access ladder operating room ustulation surprise projection sulfuric acid pm approximately nv cx mr helper jumbo remove drill rod drilling hole instant break chain subjection table drilling machine slide achieve rub index finger leave hand cause injury moment truck transport personnel company mceisa plate ajg move surface miss 50 m reach mouth gearbox respond driver stop truck inspect maintenance personnel time travel truck raise cabin manually change continue trip culminate task driver support maintenance personnel low cabin weight fall hit driver cabin hopper truck time accident employee wear safety helmet chin strap complete welding work backhoe bucket hour glass moon welder feel slight discomfort eye transfer medical service evaluation accident welder facial mask welding porvenir substation level assemble metal structure approximately kg support lift system operator try accommodate structure anchor base moment metallic structure slide direction injure worker right hand produce slight right hand accretion head bolt base structure cause injury time accident operator use safety glove transit fuel tanker level level north ramp pass level operator feel right rear tire skid operator perform defensive maneuver truck hit leave gable cause injury describe time accident pilot copilot wear safety belt safety glass helmet field trip return work lunch employee wellfield company slip loose stone place moment intention balancing try hold tree fall right arm cause fracture distal end radius activity paralyze employee refer hospital paracatu undergo medical care approximately pm operator eustaquio fall metal platform give access tank d strong acid leach stage suffer luxofracture wrist leave lean floor hand operator direct tank strong acid leaching stage tk d verify entry spend taque mooring fanele detonate cord complete injure person proceed tie detonate cord safety guide slow wick distance meter work moment finish mooring rock bank 30 cm 50 cm 15 cm kg front height meter fall floor close injure disintegrate fragment 12cmx10cmx3 cm kg slide fragment rock impact leave leg victim time accident operator safety boot accompany supervisor activity construction wall stopper mortar block improve ventilation intermediate zone moment bricklayer assistant prepare complete construction 05 m high wall wall block block fall scaffold mason assistant jump accumulation sand locate avoid hit block fall injury describe occur time accident mason assistant jump height floor work personal safety equipment reduce impact fall operator scissor leave equipment park level acc electrical problem maintenance personnel arrive electrician climbs control platform equipment perform verification hydraulic system confirm problem coordination mechanic decide perform test diesel system moment accidentally activate body arm movement lever cause drill arm downward generate left hand atricion support pivot tube generating lesion describe time accident electrician control platform mechanic ground level observe pressure diesel system pressure gauge circumstance operator scooptram proceed sit equipment closing door take right hand handrail place close door hinge closing trap worker middle finger worker time accident use leather safety glove plant work geho pump reducer accompany rotation shaft reducer mixed key wrench crown hit housing geho pump attribute union area ​​the fifth fourth finger welder right hand cause injury time accident equipment block employee leather glove be mr support mechanic prepare place floor metal call rear bridge forklift moment move move generate blow middle finger leave hand moment maperu truck plate f1 t return city pasco unit transport consultant meter main gate lane invade civilian vehicle make driver turn sharply right staff company impromec hot melt work pipe impacting collaborator cause injury describe time accident truck travel 37 km accord inthinc width road meter activity safety cone warn side road employee respective epp approx hour operator opening wagon find hardened stake use bar approx 5 m remove it moment press bar hit hand execution drill target bolt brjcldd0006 company servitecforaco probe july official moment maneuver fish material remove feeder water movement winch realize safety chain loose curl rod perform chain removal movement place leave hand hose cap hydraulic plate unlock inner tube abrupt movement chain push hand hydraulic plate cause injury ring finger hand lesion cause cut 4th quirodactyl need suture point close cut operator paste filling plant remove floor grate cm clean low floor remove close water valve block vacuum technician enter filter belt notice overflow ask operator reduce load mechanic keep walk notice floor fall void impact foot leave angle floor grate produce injury accident occur time employee partner company carry unload operation bladder bag cut bag charge boom silo truck delivery mouth inner plastic bag surround content abruptly drop large material fall cone funnel cone fall injure man stand leg press body guard scaffold external medical attention verify fracture level gallery hold activity bolter equipment no operator perform drill hole support right gable footdeep drill end drill rod break leave thread inside drilling machine shank operator assistant decide percussion attempt free thread shank success attempt assistant enter corrugate iron central hole rest bar embed shank generate pressure moment operator activate percussion generate movement shank hit palm victim leave hand generate describe injury worker wear safety glove time accident end corrugate iron contact leave hand shape like cane worker time accident position roof support mesh split set times mill operator proceed remove vitaulic flange connect suction pipe pump housing 8b intention desande system remove flange mineral pulp come pressure impact face wrist leave hand generating lesion describe time accident secondary mill no pump block maintenance work mill operator safety glass level access area operator scissor team no prepare present second mesh continue support work operator pull support mesh share length equally side equipment moment roof work rock weigh approximately kg fall support mesh slide right spoiler result mesh push operator kneeling floor platform generate lesion describe rock fall directly impact operator squat position operator move away area walking mean support assistant withdrawal fix jaw wedge crusher 41br01 hoisting device hook break cause steel cable overhead crane strike leave hand employee leave company employee stumble exit ladder building fall step cause twisting ankle grate cinnamon ore transport work op2 bine having fill tenth mining car ore assistant position platform hopper op2 place wooden board piston chain avoid fall fine track time fragment rock 10cmx8 cm cm kg roll load hit distal phalanx fourth finger leave hand assistant time accident wear safety glove pad type hopper op2 time accident zero energy circumstance drill assistant proceed assemble inner tube barel injure person retract inner tube head throw manually catheter inclination continue perforation moment glove leave hand hook speart point push left hand edge box barel originate injury time accident injure employee rubber glove work area light maintain ramp placing cloth overlap previous mesh operator check work front return team coordinate assistant time fragment rock weight kg nonsustained area detach impact arm team reach bounce collaborator cause injury involve use epps time incident assistant team prepare support mesh time collaborator perform evacuation inchancable mine present strip phase notice piece support mesh position frame return belt attempt remove mesh belt movement metal rake support mesh yield move direction rotation return belt hit collaborator hand metal structure cause contusion leave hand time accident employee leather glove clerk cut excess fiberglass pass box contact blade marble see cut glove cause wound right hand maintenance work vertical pump zinc concentrate mechanic perform lift maneuver able position pump drawer instant pump clog reduce space work area order release pump place young lady low part time release turn untimely hit middle finger injure person right hand trellex section row cell worker perform anode lift correct short circuit auxiliary hoist nylon sling time sling release anode hit right hand cause injury worker see medical transfer clinic external evaluation try release pipe hdp pipe 50 m long diameter stuck support mesh master loader assistant pull pipe release it pipe release hit lateral cheekbone eyelid worker right generate describe injury city conchucos ancash participate patronal feast represent company mount horse ceremony throw fruit toy people attend public event noise material pyrotechnic people trying collect gift cause horse close horse frighten kick hit low limb employee report monitor existence borehole tubing thermal recovery boiler ustulation area window strike projection heated air reach face right forearm circumstance operator bolter go ladder height rest platform floor level slip balance hit handrail operator door time event injure person epp intersection level main road access south ramp collaborator having free tube inch diameter gable descended hold pipe fourth step telescopic aluminum ladder approximately meter floor point clamp point gable lift lifting tube pull worker cause lose balance fall height meter describe injury occur area ​​equipment inspection staff atenuz ee try remove hydraulic hammer safety lock excavator mechanical lubricator hold right hand hattype chisel equipment mechanic hit chisel pound rubber bump remove safety point blow fall edge hattype protector cause slip strike fourth finger lubricant mechanic right hand generate describe injury time accident lubricator mechanic glove type pad approx hrs mr secondary crush operator retire snack find gate chute strip open approach close gate moment operator mr upper platform coordinate operator control room start strip moment startup product project particle 10x6x5 cm impacting flange gate project height lense respirator mr phase operator carry removal inchancanble reciprocate feeder remove split set support rope staff support leave hand structure protection fall moment split set come load hit distal phalanx fifth finger leave hand generate describe injury circumstance assistant arrange advance hose flexible nylon of diameter proceed water shot fire position zone support deteriorate blast moment give block rock 25cmx10cmx5 cm kg roof work height meter fall hit rebound leave leg collaborator cause described injury inside diamond drill positive drill moment control tube rescue fisherman winch cable break untimely develop whiplash effect impact left hand drill assistant cause described injury time accident drill assistant platform 0 m frame hycrontype safety glove activity loading explosive level gts fall rock fragment reach right arm blaster cause cutblunt circumstance mechanical technician work colleague arrange accommodate spare rollover small platform cart floor squat collaborator decide push side time edge rollover imprison finger leave hand handle cart right side cause wound finger leave hand time accident employee respective glove ore load lt locomotive complete penultimate car derail 7th car presence fragment rock railway line weight car mineral ton track mining car victim make use metal tube length meter diameter maneuver reposition mining car moment metallic tube lose stability imprison victim hand strut mining car collaborator time event use leather glove time heavy equipment operator get equipment check right headlight defective scooptram position rim position leave leg slide cause heavy equipment operator fall height alimak chimney level alimakero driller assistant position main cage guard head proceed perform rock untie chimney time teacher perceive spark rock communicate assistant prevent fall rock 0x080x0 guard head fragment fragment fall chain rebound rub operator right hand generate describe injury activity place board rack exchange fabric filter plate inclined try plate correct position plate arm press right hand structure easel mr having complete change guide pole conveyor belt collaborator move belt remove tecl pass stair get observe moment collaborator drop inchancable weight approx kg entrance platform chute discharge height meter iron graze forearm finally hit left foot height instep approximately be mr approach c150 dry tower placement blanket cover entrance manhole tower moment manhole cover rest rail slide impact right leg worker césar injure nilton receive order immediate supervisor carry assembly activity brace length approximate weight kg structure nro belt say collaborator lift brace approach installation point leave end ground rest corner pedestal approximate height cm carry plan work injure person lift end floor turn position assembly moment end fall generate imprisonment finger leave hand staff take medical center supervisor operator descend ladder sailor step fall floor go 3er step fall hit head worker chin strap helmet safety element reduce injury blow treat medical center local treatment refer clinic reevaluation activity chuteo ore hopper op5 operator locomotive park equipment hopper fill car moment blow release load mud flow suddenly appear presence rock fragment personnel direction flow cover mud activity chuteo ore hopper op5 operator locomotive park equipment hopper fill car moment blow release load mud flow suddenly appear presence rock fragment personnel direction flow cover mud activity chuteo ore hopper op5 operator locomotive park equipment hopper fill car moment blow release load mud flow suddenly appear presence rock fragment personnel direction flow cover mud time mechanic perform removal 1tm engine positive slope key tyrfor time 1st welder tighten key weight pull chain eyebolt hold click roof work break transversely cause fall key hit helmet welder mechanic cause cervical contracture tirfor activity second protection prevent engine fall happen maintenance bolter equipment collaborator use carpenter hammer able remove link chain advance drilling machine moment hit chain partner hit structure beam divert path hammer cause strike leave hand perform movement bar room place calibrator mr push bar hand turn it moment imprison middle finger leave hand bar ahead end unleash saturated material talus crest bank rugged taut rope leave work area tension moment loose material slope crumble height stool 3 m project fragment 6cmx2cmx1 cm 26gr rub right cheek cause injury time event area isolate collaborator epp correspond activity employee report try remove plate overflow system ustulador oven 5th finger right hand press tool wrench extension overflow flange ustulador oven locate performer approximately pm alpha operator mr heading decide stop equipment accommodate light leave side manipulating support lighthouse catch fifth finger right hand protection grid support volvo workshop time cut steel plate thickness in installation mt scoop lip equipment injure feel discomfort eye time accident collaborator use epp soldering iron lens adjustment presence respirator make change support vertical pump zinc mechanic raise beam in kg end height injure person knee slip hand cause injury describe employee perform withdrawal electrical failure engine control drawer check exchange fuse close door drawer energize drawer moment arc open reach face employee forearm cause minor burn auxiliary general service month day work perform activity soil collection movement equipment point hold lever encounter piece slope ground interlace vegetation cause fall leave tool hold rapid fall prevent employee lean cause shock elbow ground employee continue activity point sample collection feel arm bother activity settle concrete block ventilation plug wall cx level circumstance worker set union concrete block polyethylene pipe diameter pick spike hit hit worker protector approach furnace process melt ingot strike liquid metal projection routine slimme activity kiln battery employee begin remove waste inside crucible aid skimmer feel pain leave shoulder hour mr moinsac carry work assemble water line climb cat ladder approximate height meter vanishe fall hit way transfer medical center attention be 179th block moment messrs injure clean 14th drill radial mesh incline shape right gable moment detache fragment rock 5x5x2 cm impact shoulder enter interior bodeguero locate litorina convoy displacement litorina derail advance approximately meter operator observe event enter entrance gate paralyze displacement convoy winemaker epps on hour approximately circumstance administrative ssomac arrange guillotine right center table cut enmicada page try raise guillotine middle finger right hand rub edge guillotine blade cause cut yolk finger right hand maintenance peristaltic pump 02bp0166 change internal hose rupture tubing reserve pump 02bp0167 rupture start operate designing solution heat employee reach left forearm cause irritation skin maintenance peristaltic pump 02bp0166 change internal hose rupture tubing reserve pump 02bp0167 disrupt start operate designing solution heat employee reach left forearm cause burn conclusion unload ore amp plate pit driver notice stretch support mesh stuck hopper hatch driver get equipment with hopper lift remove hand mesh generating force fine particle rock fall impregnated eye injure time incident injure person measure glass surcharge mr put tool hopper truck park cruise level ob2b mining operation van arrive drive engineer park truck approximately meter having place safety block go request datum drill later assistant simba open gate dropping bit hopper truck untimely vehicle move forward pin mechanic right leg mining cycle chimney start drill work anchor lane alimak system collaborator squat pick manual tool platform moment jackleg team lose position project collaborator generating injury employee descend ladder inspection milling cyclone give access floor mill platform iscmg26 floor give way fall height approximately meter meter there material ore platform decrease height fall impact area ​​lloclla meter substation nro circumstance worker prepare pick rope floor fragment rock slide slope hill fragment diameter approximately impact face worker produce aforementioned injury perform clean activity area near tc grinding employee handle block triangular shape rock measure 53 cm 42 cm 12 cm movement lose balance fall rock thumb leave hand injure he nv chamber accumulation aggregate worker cast shotcrete crown work pm perceive discomfort fog face decide choose use safety glass comfort continue throw shotcrete pm suffer projection shotcrete rebound particle leave eye preparation solubilization activity sample chapel maid move vial nitric acid detach doser cause projection region face upper limb employee report assist maintenance activity tower electrolysis step grp grid polymer floor move cause fall event take place stage displacement fall floor span receive effort employee fall 60 m grp floor gutter floor support structure employee fall low level 35 m grp floor employee perform task hoisting bigbag contain waelz oxide perform hoisting employee suffer lowvoltage electric shock contact hoist attach handle bigbag it level formerly level hydraulic filling personnel perform installation diameter hdpe pipe ventilation chimney help yard scooptram hold push end pipe pipe meter length moment pipe get stuck edge chimney cause pipe form arc height injure worker be signal light lamp operator scooptram stop try retire line fire worker lose balance light contact pipe cause fall level tower old disabled deenergize dismantle locate city pasco profile base tower previously disassemble cut oxyfuel equipment be proingcom security supervisor foreman outside fence area supervise activity indicate stoppage activity evacuation refuge orange alert indicate detector storm evacuation employee inside fence area loud sound hear provoke fright cause staff throw floor inside area proceed leave work area mean ladder apparently loud sound correspond electrical discharge cable guard pass old tower tower old disabled deenergize disassemble locate city pasco cut profile base tower previously disassemble carry out oxyfuel equipment be safety supervisor proingcom foreman external fence area supervise activity indicate paralysis activity evacuation refuge orange alert indicate detector storm evacuation employee inside fence area loud sound hear provoke scare cause staff throw floor area proceed leave work area mean staircase apparently loud sound correspond electrical discharge cable guard pass old tower employee lima silva composing team open bite survey ip team consist mine technician assistant move bite touch left foot stump tucum ground cover dry leave vegetation near drainage feel thorn pierce foot tell mining technician happen teammate remove thorn pierce boot removal spine foot wash verify injury event technician wax activity return city porangatu go necessary employee health unit perform clean material mineral accumulate steel plate concrete base rest show photograph steel plate thickness in order complete cleaning worker decide weld steel plate support eyelet type end fix point fasten pin helical support way lift plate help key remove accumulate material instant pull chain tecla injure left hand rest concrete wall the line fire product tension exert tecle helical bolt break chain lash index finger generate injury time accident accident victim epps include glove circumstance staff perform rhyme caving hw pipe suspend approximately floor assistant place stilson key no pipe fit pipe height base rod holder operator operate slide back cause pipe slide cause tip fourth finger assistant right hand catch stilson key base rod holder time event collaborator epps area ​​machine tool mechanic injure operating bench drill drill metal jacket line install skip moment accompany mechanic manipulate jacket direct maneuver right drill mr tell stop drill verify depth drill lift pull iron verifie fine communicate restart drill hole moment victim apparent reason crosse leave arm drill catch drill work clothe cause injury describe hour end concentrate truck clean driver instruct close gate moment mr vehicle report have injury leave hand transfer medical center attention later evacuation clinic moment collaborator carry inspection conveyor belt no tail pulley height load polymer no maslucan collaborator hear noise note belt move tail pulley fragmentos mineral fragment project access ramp impacting collaborator evacuate medical post moment collaborator carry inspection conveyor belt no tail pulley height load polymer no maslucan collaborator hear noise note belt move tail pulley fragmentos mineral fragment project access ramp impacting collaborator evacuate medical post circumstance worker walk straight line level step rock approximately cm bend right ankle cause injury describe event occur worker decide report accident feel pain pm approximately begin feel discomfort walk progressive mild pain ankle moment communicate event employee report try unlock cathodic sheet digger realize blade press cable project hit face level guide wire chamber preparation activity mix shocrete worker perform empty bag cement bucket complete dosage moment dust generate cement enter low lense leave eye cause irritation circumstance driver plate truck ee impromec go garit plant chicrin nv enter internal area ​​santa approx old dining room stop vehicle inform copilot long drive turn vehicle try van lose balance fall seat complain intense pain lumbar area cite pain overexertion routine activity evacuation residual oil solid waste cylinder previously perform collaborator time event correspond epp employee perform insertion adjustment joint blind flange tubing wedge shift cause movement flange cause 3rd 4th finger leave hand press convoy locomotive operate mr locate hopper op2 position 1st car hopper assistant observe ordinary dry load presence water initiate chute this hydraulic module hopper switch control slightly move hopper handle untimely flow water mud splash operator generate describe injury addition collaborator meter line fire master additiv</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>In moment that the operator of the Jumbo 2 , try energize your equipment to proceed to the installation of 4 split set at intersection 544 of Nv 3300 , remove the lock and opening the electric board of 440V and 400A , and when lift the thermomagnetic key This make phase to ground - phase contact with the panel shell - produce a flash which reach the operator cause the injury described . Approximately 1:40 p.m. in circumstance that shotcrete be launch in the Nv . 1680 BP 255 of the OB2B , after finish the launch of the first mixkret 113 , the assistant of the alpha , Mr. Albertico asks the operator of the mixkret 113 , Mr. Jhony to move the mixkret 116 , so that access , find in the cockpit of the mixkret the operator of the Launcher team , Mr. Danon asks him to come down . When the team start , he notice that Mr. Danon ( injured ) be imprison between the team ( height of the left rear rim ) and the Hastial de la Labor . When start the activity of remove a coil of electric cable in the warehouse with the help of forklift truck the operator do not notice that there be a beehive in it . Due to the movement of the coil the bee be excite . Realizing the fact the operator turn off the equipment and left the area . People passing by be stung . When start the activity of remove a coil of electric cable in the warehouse with the help of forklift truck the operator do not notice that there be a beehive in it . Due to the movement of the coil the bee be excite . Realizing the fact the operator turn off the equipment and left the area . People passing by be stung . In circumstance that two worker of the company INCIMMET make the load of explosive use an equipment anfoloader , in a front of the work - sustain with shotcreterepentinamente of the right superior part of the crown , a piece of rock of approx . 9. kg , ( 0.2mx0.15mx0.10m ) , impact on the basket and on the back of the helper who be in the basket suspend at 2.2 m height , moment later a block of rock be detach from the wall of the gable approx . 1,500 kg . ( 1.20mx1.10mx0.40m ) , which impact the ampoloader team and part of this block injures the operator of the ampoloader team who be stand on the ground . The equipment anfoloader have a cabin with protection ROPs and FOPs , at the time of the accident both worker use helmet and safety boot . Both suffer polyontusions and minor scoria injury . In circumstance that two worker of the company INCIMMET fectuaban the load of explosive use an equipment anfoloader , in a front of the work - sustain with shotcreterepentinamente of the right superior part of the crown , a piece of rock of approx . 9. kg , ( 0.2mx0.15mx0.10m ) , impact on the basket and on the back of the helper who be in the basket suspend at 2.2 m height , moment later a block of rock be detach from the wall of the gable approx . 1,500 kg . ( 1.20mx1.10mx0.40m ) , which impact the ampoloader team and part of this block injures the operator of the ampoloader team who be stand on the ground . The equipment anfoloader have a cabin with protection ROPs and FOPs , at the time of the accident both worker use helmet and safety boot . Both suffer polyontusions and minor scoria injury . During the plant stop schedule for maintenance , almost at the end of the change of the `` T `` fitting of the HDP pipe with a diameter of 14 `` , the Resident enters the work zone from the bottom to supervise the work , in that At the moment four worker - anchor with harness - that be in the upper part manipulate the accessory `` T `` to tie the flange of the HDP pipe and PVC of 14 `` diameter , suddenly the PVC pipe come out of it support ( pipe with fine material of tail ( Weight 700kg . ) ) and fall from a height of 2 meter to the floor , bounce and imprisons the resident engineer . Only the injured worker be in the low part or line of fire . In circumstance that two worker of the Abratech company be do putty work inside the conditioning tank ( 5 meter deep and cover by platform ) of metal grate - grating- in the upper part ) , two other employee of the HyT company carry out maneuver transfer of a pump with the help of a manual tick - which work hooked to a beam H , drag the pump on the metal grate ( grate ) , suddenly the pump be hooked with a metal grate ( grate ) and when try to release it , the metal grid ( grate - 13.0 Kg . ( 60 cm x 92 cm ) ) fall inside the tank , hit a diagonal channel inside the tank and then impact the right arm of one of the worker and rub the helmet of the second worker that he be crouch . The area where the bomb be be move be marked with tape and do not have a lookout . In circumstance that two worker of the Abratech company be do putty work inside the conditioning tank ( 5 meter deep and cover by platform ) of metal grate - grating- in the upper part ) , two other employee of the HyT company carry out maneuver transfer of a pump with the help of a manual tick - which work hooked to a beam H , drag the pump on the metal grate ( grate ) , suddenly the pump be hooked with a metal grate ( grate ) and when try to release it , the metal grid ( grate - 13.0 Kg . ( 60 cm x 92 cm ) ) fall inside the tank , hit a diagonal channel inside the tank and then impact the right arm of one of the worker and rub the helmet of the second worker that he be crouch . The area where the bomb be be move be marked with tape and do not have a lookout . When perform cleaning with LHD in block F 9970 at level 420 , the operator be surprised by a rock block displacement of the side of the gallery , reach his right leg cause him superficial injury When check voltage at the power outlet of the the plug and socket to make sure the connection be correct , when there be a small electrical arc in the power cord , cause a slight burn in the right hand wrist . The protection system act immediately . Being 01:50 p.m. approximately , in the Nv . 1800 , in the Tecnomin winery . Mr. Chagua - Bodeguero be alone , cut wire No . 16 with a grinder , previously he have remove the protection guard from the disk of 4 inch in diameter and adapt a disk of a crosscutter of approximately 8 inch . Originating traumatic amputation of two finger of the left hand At approximately 5:45 pm , the operator Paulo ( operator of the filter ) inform the autoclave operator via radio of a leak on the side of the scruber . The autoclave III feed be stop by the control and official Georli and Renato initiate the procedure for closing the autoclave transfer valve for flash TQs . Soon after , there be a break in the chicken , project pulp hot and reach three employee who be inside the room near the equipment . In access 2 of level 3910 , during the installation activity of hydraulic fill pipe of 4 `` diameter , when instal a section 80 m to a height of 5.6 m with reference to the floor , the master of hydraulic fill - accident - and his partner suffers an attrition of the right hand between the upper edge of the scoop lamp and the roof of the work generate the injury . At the time of the accident the employee use his rubber glove . At moment when the MAPERU truck of plate F1T 878 , return from the city of Pasco to the Unit transport a consultant , be 350 meter from the main gate his lane be invade by a civilian vehicle , make the driver turn sharply to the side right where be staff of the company IMPROMEC do hot melt work in an 8 `` pipe impact two collaborator cause the injury described At the time of the accident the truck be travel at 37km / h - accord to INTHINC - , the width of the road be of 6 meter , the activity have safety cone a a warn on both side of the road and employee use their respective EPP 'S . When observe the pulp overflow of the overflow reception drawer of the thickener , the filter operator approach to verify the operation of the C7-26 pump , make sure that it be stop . So press the keypad to start the pump and not get the start , proceeds to remove the guard and manipulates the motor - pump transmission strip , be left hand imprison between the pulley of motor and transmission belt At 13:40 hour , Mr. Hidalgo , want to climb on the starter board to remove the fan , stand on an unstable reel and , when drive , fell frontally at a height of 2.98m . In Level 2900 - OP 5 the worker perform the chuteo ore from the hopper to the second car , perceive a slip of water and mud through the hopper , decide to leave the platform and when he be already down the second rung of the ladder of access , the water increase and a fragment of rock slide and hit the back of the worker cause it to fall and hit the right forearm and left knee . the Spillway circumstance where the worker be cleaning , with the use of an absorbent cloth , oil residue from the right edge of the Atlas AXS-186 compressor , with the bonnet open and in function ; the rag fall inside the ompressor and in the attempt to remove it , it be hooked on the fan 's propeller , pull the worker 's left hand toward the propeller cause the injury . In the Nv . 3370 , CX 212 - South , when the Mechanic loosens a through bolt of the intermediate cardan protector of the Dumper 01 , the protector be release and imprisons the first finger of the left hand against the connector of the hydraulic steer cylinder ( Position 2 ) . The employee , who be hitchhike , on the CEP 403 truck , equipment , he cross the central canterio of the track to catch the key of the wheel loader with another operator who be stop in the opposite direction . Upon return to the truck , it be hit in the arm left by the loader tire that be travel along the road and pa the CEP-403 on the right . At Level 3970 ( Before -100 ) When the F6M 801 license plate go from level 3570 to surface , when the pilot try to locate his radio to answer a call from the concrete plant be distract and crash his vehicle against the left gable and the vehicle turn to the right side . When this happens , the copilot hit his right hand against a fragment of broken glass in the window on the right side of the vehicle . When the scoop be head from Rpa 910 to the cut-off point of the Cro 861 South to be unloaded , it visualizes a truck that be park with the light and the engine ignite inside the thrust - where the Scoop found accumulate dismount- ; the operator stop the Scoop and get off to tell the driver of the truck to leave and when he find no one he decides to go and look for the driver at the top of Cro 861 South , where he can not find it ; Then he return to his Scoop and at 15 to 20 meter visualizes the light of a lamp shin in the direction of the gable , when approach , he find the decease lie on the side of the Scoop and proceeds to give immediate notice to the supervisory of the shift , control center and emergency center . During the activity of change conveyor belt 11B feed the primary mill No . 2 ; the mechanic enter the discharge chute ( 0.75 x 0.75 x 0.80 m. ) to clean the material , at which time the automatic sampler ( 0.30 x 0.25 m ) that be inside the chute be activate , trap the mechanic at the height of the chest . At the time of the accident the mechanic be alone in the work area . Being approximately 20:57 hour of 03/22/2017 ; during the change of cable between the Z-332 power cell ( lock cabinet ) and the Z014 transformer ; there be a loud noise follow by an oscillation of the electrical system . At that moment the collaborator Queneche of the company EISSA be found on the floor with his head inside an adjoin cell Z-132 ( cabinet Not block - where he be not assign to do any work ) , after have receive an electric shock . When the Mixer 01 of the E.C.M INCIMMET S.A , move by the positive south ramp , with direction to surface ( Unicon concrete plant ) , at the height of the 3630 ( Before 440 ) , the operator observes that untimely light and the engine go off , the control control do not respond and the equipment start to reverse . At 3 meter the operator jump out of the cabin and at 20 meter the team hit the right gable and turn to it side left . In the area , in the circumstance of the event there be no presence of personnel or equipment that could have be affected . ACTIVITY : front sanitation ( slaughter of choco with scaller ) LOCAL : underground mine , level 350 - front 45 Upper JKA The operator perform front sanitation when a rock block from the roof hit the equipment . The accident victim be promptly rescue by the unit 's emergency brigade and transport to the outpatient clinic where he receive the first care , and be then transfer to the Municipal of Paracatu . In circumstance that Mr. Efraín OSORIO FELIX - Mina 2nd . He enter the interior of Pocket 2 at level 2865 ( Before -1205 ) . It activate the compress air gun that be instal in the low part of the structure with a nozzle that communicates the air lung with the internal part of the pocket , project a violent flow of air that blow the left leg of the worker and generates a stun by the noise produce . The employee Márcio and Sérgio perform the pump pipe clearing activity FZ1.031.4 and during the removal of the suction spool flange bolt , there be projection of pulp over them cause injury . The employee Márcio and Sérgio perform the pump pipe clearing activity FZ1.031.4 and during the removal of the suction spool flange bolt , there be projection of pulp over them cause injury . When perform shotcrete cast for resane on Cruise 791 Nv . 1940 at 02:50 p.m. approximately , the operator be place on the left side of the equipment and start the release of 02 cubic meter , at that time decide to paralyze the task for a few minute due to a leak of water in the roof box that do not allow the adhesion of the shotcrete to the rock ( set ) . When restart the shotcrete launch the operator that be on the left side move to the right side of the equipment , while the assistant and the operator mixkret to see that there be no pump go to verify what happen and when they return they realize that the operator be not , so they assume that he have fall down the chimney , they left the job to ask for help immediately . The emergency response brigade and the medical service be activate , who verify the death of the collaborator . The accident investigation begin .</t>
+          <t>moment operator jumbo try energize equipment proceed installation split set intersection remove lock open electric board 440v 400a lift thermomagnetic key make phase ground phase contact panel shell produce flash reach operator cause injury describe approximately pm circumstance shotcrete launch nv ob2b finish launch mixkret assistant alpha mr ask operator mixkret mr mixkret access find cockpit mixkret operator team mr ask come down team start notice mr injure imprison team height leave rear rim hastial labor start activity remove coil electric cable warehouse help forklift truck operator notice beehive it movement coil bee excite realize fact operator turn equipment leave area people pass stung start activity remove coil electric cable warehouse help forklift truck operator notice beehive it movement coil bee excite realize fact operator turn equipment leave area people pass stung circumstance worker company incimmet loading explosive equipment anfoloader work sustain shotcreterepentinamente right superior crown piece rock approx kg 2mx015mx010 m impact basket helper basket suspend height moment later block rock detach wall gable approx kg 20mx110mx040 m impact ampoloader team block injure operator ampoloader team stand ground equipment anfoloader cabin protection rop fop time accident worker helmet safety boot suffer polyontusion minor scoria injury circumstance worker company incimmet fectuaban loading explosive equipment anfoloader work sustain shotcreterepentinamente right superior crown piece rock approx kg 2mx015mx010 m impact basket helper basket suspend height moment later block rock detach wall gable approx kg 20mx110mx040 m impact ampoloader team block injure operator ampoloader team stand ground equipment anfoloader cabin protection rop fop time accident worker helmet safety boot suffer polyontusion minor scoria injury plant stop schedule maintenance end change t fit hdp pipe diameter resident enter work zone supervise work moment worker anchor harness upper manipulating accessory t tie flange hdp pipe pvc diameter suddenly pvc pipe come support pipe fine material tailing weight 700 kg fall height meter floor bounce imprison resident engineer injure worker low line fire circumstance worker abratech company putty work inside conditioning tank meter deep cover platform metal grating grate upper part employee hyt company carry maneuver transfer pump help manual tick work hooked beam drag pump metal grating grate suddenly pump hooked metal grate grate try release it metal grid grate kg cm fall inside tank hit diagonal channel inside tank impact right arm worker rub helmet second worker crouch area bomb move marked tape lookout circumstance worker abratech company putty work inside conditioning tank meter deep cover platform metal grating grate upper part employee hyt company carry maneuver transfer pump help manual tick work hooked beam drag pump metal grating grate suddenly pump hooked metal grate grate try release it metal grid grate kg cm fall inside tank hit diagonal channel inside tank impact right arm worker rub helmet second worker crouch area bomb move marked tape lookout perform clean lhd block level operator surprise rock block displacement gallery reach right leg cause superficial injury check voltage power outlet plug socket sure connection correct small electrical arc power cord cause slight burn right hand wrist protection system act immediately pm approximately nv tecnomin winery mr alone cut wire no grinder previously remove protection guard disk inch diameter adapt disk crosscutter approximately inch originate traumatic amputation finger leave hand approximately pm operator operator filter inform autoclave operator radio leak scruber autoclave iii feed stop control official initiate procedure close autoclave transfer valve flash tqs soon after break chicken project pulp hot reach employee inside room near equipment access level installation activity hydraulic filling pipe diameter instal section height reference floor master hydraulic fill accident partner suffer attrition right hand upper edge scoop lamp roof work generate injury time accident employee rubber glove moment maperu truck plate f1 t return city pasco unit transport consultant meter main gate lane invade civilian vehicle make driver turn sharply right staff company impromec hot melt work pipe impacting collaborator cause injury describe time accident truck travel 37 km accord inthinc width road meter activity safety cone warn side road employee respective epp observe pulp overflow overflow reception drawer thickener filter operator approach verify operation c7 pump making sure stop press keypad start pump get start proceed remove guard manipulates motor pump transmission strip leave hand imprison pulley motor transmission belt hour mr want climb starter board remove fan stand unstable reel and drive fall frontally height 98 m worker perform chuteo ore hopper second car perceive slip water mud hopper decide leave platform second rung ladder access water increase fragment rock slide hit worker cause fall hit right forearm leave knee circumstance worker clean use absorbent cloth oil residue right edge axs compressor bonnet open function rag fall inside ompressor attempt remove it hook fan propeller pull worker leave hand propeller cause injury nv south mechanic loosens bolt intermediate cardan protector dumper protector release imprison finger leave hand connector hydraulic steering cylinder position employee hitchhike cep truck equipment cross central canterio track catch key wheel loader operator stop opposite direction return truck hit arm leave loader tire travel road pass cep right level before f6 m license plate go level surface pilot try locate radio answer concrete plant distract crash vehicle leave gable vehicle turn right side happen copilot hit right hand fragment break glass window right vehicle scoop head rpa cutoff point cro south unload visualize truck park light engine ignite inside thrust scoop find accumulate dismount operator stop scoop get tell driver truck leave find decide look driver cro south find it return scoop meter visualize light lamp shine direction gable approach find deceased lie scoop proceed immediate notice supervisory shift control center emergency center activity change conveyor belt 11b feed primary mill no mechanic enter discharge chute m clean material time automatic sampler inside chute activate trap mechanic height chest time accident mechanic work area approximately hour change cable z power cell lock cabinet z014 transformer loud noise follow oscillation electrical system moment collaborator company eissa find floor head inside adjoining cell z cabinet block assign work having receive electric shock mixer ecm incimmet sa move positive south ramp direction surface unicon concrete plant height before operator observe untimely light engine off control control respond equipment start reverse meter operator jump cabin meter team hit right gable turn leave area circumstance event presence personnel equipment affect activity sanitation slaughter choco scaller local underground mine level upper jka operator perform sanitation rock block roof hit equipment accident victim promptly rescue unit emergency brigade transport outpatient clinic receive care transfer municipal paracatu circumstance mr 2nd enter interior pocket level before activate compress air gun instal low structure nozzle communicate air lung internal pocket project violent flow air blow leave leg worker generate stun noise produce employee márcio sérgio perform pump pipe clearing activity fz1 removal suction spool flange bolt projection pulp cause injury employee márcio sérgio perform pump pipe clearing activity fz1 removal suction spool flange bolt projection pulp cause injury perform shotcrete cast resane cruise nv pm approximately operator place left equipment start release cubic meter time decide paralyze task minute leak water roof box allow adhesion shotcrete rock set restart shotcrete launch operator leave move right equipment assistant operator mixkret pumping go verify happen return realize operator not assume fall chimney leave job ask help immediately emergency response brigade medical service activate verify death collaborator accident investigation begin</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VI</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>During the process of load drill in the Carmen pit of level 3450 , the operator position the basket of the anfo loader 186 equipment at a height of 3m from the floor to carry out the load of the production drill ; At this moment , a stone slab of 1.4x0.7x0.2 m be detach from the front of the pit , which be tilt and lodge inside the basket , trap the right leg of the collaborator .</t>
+          <t>process loading drill carman pit level operator position basket anfo loader equipment height floor carry loading production drill moment stone slab 4x07x0 detach pit tilt lodge inside basket trap right leg collaborator</t>
         </is>
       </c>
     </row>
